--- a/Métriques discriminantes/Tableau métriques/moyenne/2020_2021/Stats Bomb/metriques.xlsx
+++ b/Métriques discriminantes/Tableau métriques/moyenne/2020_2021/Stats Bomb/metriques.xlsx
@@ -1305,7 +1305,7 @@
         <v>24</v>
       </c>
       <c r="C2" t="n">
-        <v>22.903774</v>
+        <v>22.363441</v>
       </c>
       <c r="D2" t="n">
         <v>13.86842105263158</v>
@@ -1320,34 +1320,34 @@
         <v>3.473684210526316</v>
       </c>
       <c r="H2" t="n">
-        <v>1.360116793921119</v>
+        <v>1.327627210240615</v>
       </c>
       <c r="I2" t="n">
-        <v>1.047817586283935</v>
+        <v>1.014736757466667</v>
       </c>
       <c r="J2" t="n">
-        <v>0.3122992181268178</v>
+        <v>0.312890466939854</v>
       </c>
       <c r="K2" t="n">
-        <v>0.09807293510075087</v>
+        <v>0.09573022599916983</v>
       </c>
       <c r="L2" t="n">
         <v>17.45534867172676</v>
       </c>
       <c r="M2" t="n">
-        <v>17.94752892602848</v>
+        <v>17.94752768987342</v>
       </c>
       <c r="N2" t="n">
-        <v>15.98253469756155</v>
+        <v>15.98253654711174</v>
       </c>
       <c r="O2" t="n">
         <v>193.3947368421053</v>
       </c>
       <c r="P2" t="n">
-        <v>0.6302180681940356</v>
+        <v>0.6302180681940354</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.8661455893568788</v>
+        <v>0.8661455893568786</v>
       </c>
       <c r="R2" t="n">
         <v>2.25403525825167</v>
@@ -1365,13 +1365,13 @@
         <v>2.368421052631579</v>
       </c>
       <c r="W2" t="n">
-        <v>48.24049602004717</v>
+        <v>48.24049233490566</v>
       </c>
       <c r="X2" t="n">
         <v>5.850039463299132</v>
       </c>
       <c r="Y2" t="n">
-        <v>8.246183008283831</v>
+        <v>8.246182378349362</v>
       </c>
       <c r="Z2" t="n">
         <v>0.7010640741024267</v>
@@ -1392,25 +1392,25 @@
         <v>2.631578947368421</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.8586226536059066</v>
+        <v>0.8422077329535234</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.6115465879587358</v>
+        <v>0.5938065908359069</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.2470760796415178</v>
+        <v>0.2484011424607352</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.1128984867082748</v>
+        <v>0.1107401204356685</v>
       </c>
       <c r="AJ2" t="n">
-        <v>16.49477927660035</v>
+        <v>16.49477589749135</v>
       </c>
       <c r="AK2" t="n">
-        <v>17.22821077215609</v>
+        <v>17.22820689690807</v>
       </c>
       <c r="AL2" t="n">
-        <v>15.10859619140625</v>
+        <v>15.1085986328125</v>
       </c>
       <c r="AM2" t="n">
         <v>2.105263157894737</v>
@@ -1422,28 +1422,28 @@
         <v>5.552631578947368</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.175949592633467</v>
+        <v>0.1851365655709646</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.031687607697401</v>
+        <v>0.03334212868134558</v>
       </c>
       <c r="AR2" t="n">
         <v>17.84210526315789</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.09702310957455713</v>
+        <v>0.09594430408048395</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.005437873809386847</v>
+        <v>0.005377409732447261</v>
       </c>
       <c r="AU2" t="n">
         <v>0.7105263157894737</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.03761101269016141</v>
+        <v>0.03009409432936656</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.05293401965388545</v>
+        <v>0.04235464996761746</v>
       </c>
       <c r="AX2" t="n">
         <v>23.86842105263158</v>
@@ -1530,7 +1530,7 @@
         <v>3.10526315789474</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0.13778892272201</v>
+        <v>0.146391795899131</v>
       </c>
       <c r="CA2" t="n">
         <v>1.131578947368421</v>
@@ -1542,7 +1542,7 @@
         <v>15.7105263157895</v>
       </c>
       <c r="CD2" t="n">
-        <v>0.0598387011375866</v>
+        <v>0.0581869402361151</v>
       </c>
       <c r="CE2" t="n">
         <v>0.6578947368421053</v>
@@ -1554,13 +1554,13 @@
         <v>0.684210526315789</v>
       </c>
       <c r="CH2" t="n">
-        <v>0.0434187533284881</v>
+        <v>0.0396069146594719</v>
       </c>
       <c r="CI2" t="n">
         <v>20.3421052631579</v>
       </c>
       <c r="CJ2" t="n">
-        <v>0.00602970269851779</v>
+        <v>0.00421549388403563</v>
       </c>
       <c r="CK2" t="n">
         <v>0.131578947368421</v>
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="CT2" t="n">
-        <v>0.0443727000285003</v>
+        <v>0.0471431239176605</v>
       </c>
       <c r="CU2" t="n">
         <v>0.364406779661017</v>
@@ -1599,7 +1599,7 @@
         <v>0.0423728813559322</v>
       </c>
       <c r="CW2" t="n">
-        <v>0.00380882865420139</v>
+        <v>0.00370369125251195</v>
       </c>
       <c r="CX2" t="n">
         <v>0.0418760469011725</v>
@@ -1608,13 +1608,13 @@
         <v>0.0033500837520938</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.0634581813445458</v>
+        <v>0.0578870360667889</v>
       </c>
       <c r="DA2" t="n">
         <v>0.0384615384615385</v>
       </c>
       <c r="DB2" t="n">
-        <v>0.000296414881597669</v>
+        <v>0.000207229966796539</v>
       </c>
       <c r="DC2" t="n">
         <v>0.00646830530401035</v>
@@ -1632,7 +1632,7 @@
         <v>47.9736842105263</v>
       </c>
       <c r="DH2" t="n">
-        <v>0.00650980233230633</v>
+        <v>0.00652212685958017</v>
       </c>
       <c r="DI2" t="n">
         <v>0.0724081184860121</v>
@@ -1647,7 +1647,7 @@
         <v>39.8421052631579</v>
       </c>
       <c r="DM2" t="n">
-        <v>0.00620138251482259</v>
+        <v>0.00623463891456433</v>
       </c>
       <c r="DN2" t="n">
         <v>0.0660501981505945</v>
@@ -1698,10 +1698,10 @@
         <v>0.5</v>
       </c>
       <c r="ED2" t="n">
-        <v>0.6027309722022006</v>
+        <v>0.5885115791308252</v>
       </c>
       <c r="EE2" t="n">
-        <v>0.5014941378643638</v>
+        <v>0.4854194796399066</v>
       </c>
       <c r="EF2" t="n">
         <v>3.552631578947369</v>
@@ -1761,40 +1761,40 @@
         <v>25.73684210526316</v>
       </c>
       <c r="EY2" t="n">
-        <v>1.796981889950602</v>
+        <v>1.587820214660544</v>
       </c>
       <c r="EZ2" t="n">
-        <v>0.8201611594934213</v>
+        <v>0.8201610873404303</v>
       </c>
       <c r="FA2" t="n">
-        <v>0.1063308674646051</v>
+        <v>-0.087724745469658</v>
       </c>
       <c r="FB2" t="n">
-        <v>0.07465087627305796</v>
+        <v>0.06194178269881951</v>
       </c>
       <c r="FC2" t="n">
-        <v>0.8815575308705631</v>
+        <v>0.8815574724423257</v>
       </c>
       <c r="FD2" t="n">
-        <v>-0.08803501269603903</v>
+        <v>-0.0904970145658464</v>
       </c>
       <c r="FE2" t="n">
-        <v>1.411757117137313</v>
+        <v>1.304423220847782</v>
       </c>
       <c r="FF2" t="n">
-        <v>0.6666914152079507</v>
+        <v>0.6666913293302059</v>
       </c>
       <c r="FG2" t="n">
-        <v>0.01992363566042561</v>
+        <v>-0.01631827740684936</v>
       </c>
       <c r="FH2" t="n">
-        <v>0.2894775574340632</v>
+        <v>0.2805787295495209</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.528486349668942</v>
+        <v>0.5284862824421572</v>
       </c>
       <c r="FJ2" t="n">
-        <v>-0.09296203242908967</v>
+        <v>-0.1551548947433108</v>
       </c>
       <c r="FK2" t="n">
         <v>589.6578947368421</v>
@@ -1825,7 +1825,7 @@
         <v>36</v>
       </c>
       <c r="C3" t="n">
-        <v>30.834589</v>
+        <v>28.64181</v>
       </c>
       <c r="D3" t="n">
         <v>14.39473684210526</v>
@@ -1840,37 +1840,37 @@
         <v>3.368421052631579</v>
       </c>
       <c r="H3" t="n">
-        <v>1.622389118922384</v>
+        <v>1.554817211471106</v>
       </c>
       <c r="I3" t="n">
-        <v>1.350895020522569</v>
+        <v>1.283201029818309</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2714940615390476</v>
+        <v>0.2716161487624049</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1127070857576304</v>
+        <v>0.1080128950436329</v>
       </c>
       <c r="L3" t="n">
-        <v>17.13940027993602</v>
+        <v>17.1393984946298</v>
       </c>
       <c r="M3" t="n">
-        <v>17.48576992280728</v>
+        <v>17.48577108815632</v>
       </c>
       <c r="N3" t="n">
-        <v>16.00556755065918</v>
+        <v>16.00556945800781</v>
       </c>
       <c r="O3" t="n">
         <v>195.7105263157895</v>
       </c>
       <c r="P3" t="n">
-        <v>0.5666603407299342</v>
+        <v>0.5666603407299341</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.8902093613321775</v>
+        <v>0.8902094494316463</v>
       </c>
       <c r="R3" t="n">
-        <v>2.766296838267795</v>
+        <v>2.766296838267794</v>
       </c>
       <c r="S3" t="n">
         <v>33.53724660129932</v>
@@ -1885,13 +1885,13 @@
         <v>2.342105263157895</v>
       </c>
       <c r="W3" t="n">
-        <v>44.32215611287177</v>
+        <v>44.32215230375427</v>
       </c>
       <c r="X3" t="n">
         <v>9.730143540669857</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.55513897894876</v>
+        <v>4.555138587472777</v>
       </c>
       <c r="Z3" t="n">
         <v>0.7725843762975265</v>
@@ -1912,22 +1912,22 @@
         <v>2.578947368421053</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.7109526568337491</v>
+        <v>0.6979932459561449</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.5047126782960013</v>
+        <v>0.4900984024923098</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.2062399578525832</v>
+        <v>0.2078948185387018</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.0833833305924027</v>
+        <v>0.0818634033203125</v>
       </c>
       <c r="AJ3" t="n">
-        <v>17.90165201822917</v>
+        <v>17.90164749710648</v>
       </c>
       <c r="AK3" t="n">
-        <v>18.54554194897677</v>
+        <v>18.54553978844027</v>
       </c>
       <c r="AL3" t="n">
         <v>16.41676050302934</v>
@@ -1942,37 +1942,37 @@
         <v>4.973684210526316</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.1897652817792014</v>
+        <v>0.1989932579821662</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.03815386030409071</v>
+        <v>0.04000922611781529</v>
       </c>
       <c r="AR3" t="n">
         <v>13.39473684210526</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.05101692066282818</v>
+        <v>0.05111578864192492</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.003808729072450889</v>
+        <v>0.003816109977677201</v>
       </c>
       <c r="AU3" t="n">
         <v>0.5789473684210527</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.02840081452833194</v>
+        <v>0.01897011096834352</v>
       </c>
       <c r="AW3" t="n">
-        <v>0.04905595020814375</v>
+        <v>0.03276655890724876</v>
       </c>
       <c r="AX3" t="n">
         <v>21.86842105263158</v>
       </c>
       <c r="AY3" t="n">
-        <v>0.002311041578650475</v>
+        <v>0.002536993375734279</v>
       </c>
       <c r="AZ3" t="n">
-        <v>0.0001056793938188059</v>
+        <v>0.0001160117262967657</v>
       </c>
       <c r="BA3" t="n">
         <v>55.576004</v>
@@ -2050,7 +2050,7 @@
         <v>3.92105263157895</v>
       </c>
       <c r="BZ3" t="n">
-        <v>0.106717496742739</v>
+        <v>0.109141838981917</v>
       </c>
       <c r="CA3" t="n">
         <v>1.394736842105263</v>
@@ -2062,7 +2062,7 @@
         <v>13.2368421052632</v>
       </c>
       <c r="CD3" t="n">
-        <v>0.0656444788665364</v>
+        <v>0.0705140428862682</v>
       </c>
       <c r="CE3" t="n">
         <v>0.5526315789473685</v>
@@ -2074,13 +2074,13 @@
         <v>0.6052631578947369</v>
       </c>
       <c r="CH3" t="n">
-        <v>0.0330485419713353</v>
+        <v>0.0269214729655926</v>
       </c>
       <c r="CI3" t="n">
         <v>21</v>
       </c>
       <c r="CJ3" t="n">
-        <v>0.000829441865023814</v>
+        <v>0.0013174656778574</v>
       </c>
       <c r="CK3" t="n">
         <v>0.02631578947368421</v>
@@ -2110,7 +2110,7 @@
         <v>0</v>
       </c>
       <c r="CT3" t="n">
-        <v>0.0272165400869894</v>
+        <v>0.0278348314682109</v>
       </c>
       <c r="CU3" t="n">
         <v>0.355704697986577</v>
@@ -2119,7 +2119,7 @@
         <v>0.0201342281879195</v>
       </c>
       <c r="CW3" t="n">
-        <v>0.00495922589159865</v>
+        <v>0.00532710481116596</v>
       </c>
       <c r="CX3" t="n">
         <v>0.0417495029821074</v>
@@ -2128,13 +2128,13 @@
         <v>0</v>
       </c>
       <c r="CZ3" t="n">
-        <v>0.0546019388281781</v>
+        <v>0.0444789554761804</v>
       </c>
       <c r="DA3" t="n">
         <v>0.130434782608696</v>
       </c>
       <c r="DB3" t="n">
-        <v>3.94972316678007e-05</v>
+        <v>6.27364608503523e-05</v>
       </c>
       <c r="DC3" t="n">
         <v>0.0012531328320802</v>
@@ -2152,7 +2152,7 @@
         <v>40.8157894736842</v>
       </c>
       <c r="DH3" t="n">
-        <v>0.00665169204918513</v>
+        <v>0.00665468404094762</v>
       </c>
       <c r="DI3" t="n">
         <v>0.08252740167633781</v>
@@ -2167,7 +2167,7 @@
         <v>38.7631578947368</v>
       </c>
       <c r="DM3" t="n">
-        <v>0.00532051437336494</v>
+        <v>0.0053632063519283</v>
       </c>
       <c r="DN3" t="n">
         <v>0.06653088934148001</v>
@@ -2218,10 +2218,10 @@
         <v>1.105263157894737</v>
       </c>
       <c r="ED3" t="n">
-        <v>0.8114364468737653</v>
+        <v>0.7537318460251156</v>
       </c>
       <c r="EE3" t="n">
-        <v>0.9114364628729067</v>
+        <v>0.8568239635542819</v>
       </c>
       <c r="EF3" t="n">
         <v>3.473684210526316</v>
@@ -2281,40 +2281,40 @@
         <v>34.18421052631579</v>
       </c>
       <c r="EY3" t="n">
-        <v>2.095967369644265</v>
+        <v>1.928328735263724</v>
       </c>
       <c r="EZ3" t="n">
-        <v>0.8663494222258267</v>
+        <v>0.8663493312503162</v>
       </c>
       <c r="FA3" t="n">
-        <v>0.1816105810729297</v>
+        <v>-0.02189234835340789</v>
       </c>
       <c r="FB3" t="n">
-        <v>0.1770948400034716</v>
+        <v>0.2361211161570329</v>
       </c>
       <c r="FC3" t="n">
-        <v>0.7443701064606246</v>
+        <v>0.74437016800144</v>
       </c>
       <c r="FD3" t="n">
-        <v>0.1335724635670582</v>
+        <v>0.109123803778655</v>
       </c>
       <c r="FE3" t="n">
-        <v>1.428460466430375</v>
+        <v>1.313668359855288</v>
       </c>
       <c r="FF3" t="n">
-        <v>0.6044865260881028</v>
+        <v>0.6044865075106683</v>
       </c>
       <c r="FG3" t="n">
-        <v>-0.1323659993512066</v>
+        <v>-0.2689379402681401</v>
       </c>
       <c r="FH3" t="n">
-        <v>0.3494736590471707</v>
+        <v>0.3760177432314346</v>
       </c>
       <c r="FI3" t="n">
-        <v>0.6998837825499082</v>
+        <v>0.6998837907847605</v>
       </c>
       <c r="FJ3" t="n">
-        <v>-0.09312253648807343</v>
+        <v>-0.09788659692888982</v>
       </c>
       <c r="FK3" t="n">
         <v>584.6578947368421</v>
@@ -2345,7 +2345,7 @@
         <v>32</v>
       </c>
       <c r="C4" t="n">
-        <v>19.613945</v>
+        <v>18.81932</v>
       </c>
       <c r="D4" t="n">
         <v>13.1025641025641</v>
@@ -2360,19 +2360,19 @@
         <v>4</v>
       </c>
       <c r="H4" t="n">
-        <v>1.297151079162573</v>
+        <v>1.229980024007651</v>
       </c>
       <c r="I4" t="n">
-        <v>0.9706443370534823</v>
+        <v>0.9143250783284506</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3265067890573006</v>
+        <v>0.3156549791112924</v>
       </c>
       <c r="K4" t="n">
-        <v>0.09899978488392093</v>
+        <v>0.09387324980793633</v>
       </c>
       <c r="L4" t="n">
-        <v>17.56857150501468</v>
+        <v>17.56857341609589</v>
       </c>
       <c r="M4" t="n">
         <v>18.30002613336267</v>
@@ -2384,13 +2384,13 @@
         <v>202.3076923076923</v>
       </c>
       <c r="P4" t="n">
-        <v>0.5216874185350232</v>
+        <v>0.521687418535023</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.8557290532907631</v>
+        <v>0.8557290532907633</v>
       </c>
       <c r="R4" t="n">
-        <v>2.849889107794569</v>
+        <v>2.849889107794568</v>
       </c>
       <c r="S4" t="n">
         <v>46.44661016949153</v>
@@ -2405,13 +2405,13 @@
         <v>1.82051282051282</v>
       </c>
       <c r="W4" t="n">
-        <v>47.44971523588971</v>
+        <v>47.44970850387764</v>
       </c>
       <c r="X4" t="n">
         <v>7.069946195234435</v>
       </c>
       <c r="Y4" t="n">
-        <v>6.711467658392315</v>
+        <v>6.711466706190999</v>
       </c>
       <c r="Z4" t="n">
         <v>0.743962543124692</v>
@@ -2432,22 +2432,22 @@
         <v>3.461538461538462</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.9903063006125964</v>
+        <v>0.9477282166481018</v>
       </c>
       <c r="AG4" t="n">
-        <v>0.698099954579121</v>
+        <v>0.6610829151975803</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.2922063362665283</v>
+        <v>0.2866452906567317</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.08414367808755446</v>
+        <v>0.08052593222890285</v>
       </c>
       <c r="AJ4" t="n">
         <v>18.5243630004085</v>
       </c>
       <c r="AK4" t="n">
-        <v>19.49929621190201</v>
+        <v>19.4992992259838</v>
       </c>
       <c r="AL4" t="n">
         <v>16.18451786747685</v>
@@ -2462,37 +2462,37 @@
         <v>4.487179487179487</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.1533713663140168</v>
+        <v>0.1539809891166022</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.03417990548270089</v>
+        <v>0.03431576320103236</v>
       </c>
       <c r="AR4" t="n">
         <v>16.23076923076923</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.1262612109048626</v>
+        <v>0.1245811712713196</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.00777912667200652</v>
+        <v>0.007675616850408521</v>
       </c>
       <c r="AU4" t="n">
         <v>0.7692307692307693</v>
       </c>
       <c r="AV4" t="n">
-        <v>0.04429725001160151</v>
+        <v>0.03456449520607025</v>
       </c>
       <c r="AW4" t="n">
-        <v>0.05758641958236695</v>
+        <v>0.0449338436126709</v>
       </c>
       <c r="AX4" t="n">
         <v>24.61538461538462</v>
       </c>
       <c r="AY4" t="n">
-        <v>0.002576965910310929</v>
+        <v>0.002528324042661832</v>
       </c>
       <c r="AZ4" t="n">
-        <v>0.0001046892410765092</v>
+        <v>0.00010271316083769</v>
       </c>
       <c r="BA4" t="n">
         <v>48.578514</v>
@@ -2570,7 +2570,7 @@
         <v>4.97435897435897</v>
       </c>
       <c r="BZ4" t="n">
-        <v>0.182906924317089</v>
+        <v>0.18437335628252</v>
       </c>
       <c r="CA4" t="n">
         <v>1.82051282051282</v>
@@ -2582,7 +2582,7 @@
         <v>18.2564102564103</v>
       </c>
       <c r="CD4" t="n">
-        <v>0.0681941125016564</v>
+        <v>0.06558233463706881</v>
       </c>
       <c r="CE4" t="n">
         <v>0.8461538461538461</v>
@@ -2594,7 +2594,7 @@
         <v>0.58974358974359</v>
       </c>
       <c r="CH4" t="n">
-        <v>0.0389453347485799</v>
+        <v>0.0345296398378336</v>
       </c>
       <c r="CI4" t="n">
         <v>24.5641025641026</v>
@@ -2630,7 +2630,7 @@
         <v>0</v>
       </c>
       <c r="CT4" t="n">
-        <v>0.0367699505127582</v>
+        <v>0.0370647489410086</v>
       </c>
       <c r="CU4" t="n">
         <v>0.365979381443299</v>
@@ -2639,7 +2639,7 @@
         <v>0.0360824742268041</v>
       </c>
       <c r="CW4" t="n">
-        <v>0.00373535109369942</v>
+        <v>0.00359229057022695</v>
       </c>
       <c r="CX4" t="n">
         <v>0.0463483146067416</v>
@@ -2648,7 +2648,7 @@
         <v>0.00702247191011236</v>
       </c>
       <c r="CZ4" t="n">
-        <v>0.066037742987923</v>
+        <v>0.0585502593413643</v>
       </c>
       <c r="DA4" t="n">
         <v>0</v>
@@ -2672,7 +2672,7 @@
         <v>46.1025641025641</v>
       </c>
       <c r="DH4" t="n">
-        <v>0.00708218225515194</v>
+        <v>0.00684679761214039</v>
       </c>
       <c r="DI4" t="n">
         <v>0.0867630700778643</v>
@@ -2687,7 +2687,7 @@
         <v>48.3846153846154</v>
       </c>
       <c r="DM4" t="n">
-        <v>0.00603924090734663</v>
+        <v>0.00592430622159456</v>
       </c>
       <c r="DN4" t="n">
         <v>0.0715421303656598</v>
@@ -2738,10 +2738,10 @@
         <v>0.6153846153846154</v>
       </c>
       <c r="ED4" t="n">
-        <v>0.5029216874868442</v>
+        <v>0.4825467047018883</v>
       </c>
       <c r="EE4" t="n">
-        <v>0.3068447747291663</v>
+        <v>0.2822518020104139</v>
       </c>
       <c r="EF4" t="n">
         <v>2.743589743589744</v>
@@ -2801,40 +2801,40 @@
         <v>35.35897435897436</v>
       </c>
       <c r="EY4" t="n">
-        <v>2.122172821790744</v>
+        <v>1.922166285988612</v>
       </c>
       <c r="EZ4" t="n">
-        <v>0.8152886449526517</v>
+        <v>0.8152886694058393</v>
       </c>
       <c r="FA4" t="n">
-        <v>0.2561327568613566</v>
+        <v>0.06944222031877591</v>
       </c>
       <c r="FB4" t="n">
-        <v>0.2660184082790063</v>
+        <v>0.2957363833959859</v>
       </c>
       <c r="FC4" t="n">
-        <v>0.8386815576217114</v>
+        <v>0.8386815699915855</v>
       </c>
       <c r="FD4" t="n">
-        <v>-0.05394859629301115</v>
+        <v>-0.09698265304979987</v>
       </c>
       <c r="FE4" t="n">
-        <v>1.230434442750919</v>
+        <v>1.087132340440383</v>
       </c>
       <c r="FF4" t="n">
-        <v>0.7379888203472663</v>
+        <v>0.7379888283709685</v>
       </c>
       <c r="FG4" t="n">
-        <v>0.08378907006520492</v>
+        <v>-0.07721791416406631</v>
       </c>
       <c r="FH4" t="n">
-        <v>0.06187430473092275</v>
+        <v>0.08320112172991802</v>
       </c>
       <c r="FI4" t="n">
-        <v>0.5323383129464511</v>
+        <v>0.5323382345720743</v>
       </c>
       <c r="FJ4" t="n">
-        <v>-0.1859924180003313</v>
+        <v>-0.1896142643900254</v>
       </c>
       <c r="FK4" t="n">
         <v>454.4102564102564</v>
@@ -2865,55 +2865,55 @@
         <v>15</v>
       </c>
       <c r="C5" t="n">
-        <v>5.605961</v>
+        <v>2.9933357</v>
       </c>
       <c r="D5" t="n">
         <v>10.975</v>
       </c>
       <c r="E5" t="n">
-        <v>7.675</v>
+        <v>7.7</v>
       </c>
       <c r="F5" t="n">
-        <v>2.95</v>
+        <v>2.975</v>
       </c>
       <c r="G5" t="n">
-        <v>3.3</v>
+        <v>3.275</v>
       </c>
       <c r="H5" t="n">
-        <v>1.098819780349731</v>
+        <v>1.037614202126861</v>
       </c>
       <c r="I5" t="n">
-        <v>0.8228579564020038</v>
+        <v>0.771212999150157</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2759618132608012</v>
+        <v>0.2664011874701828</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1001202663691006</v>
+        <v>0.09454343965221917</v>
       </c>
       <c r="L5" t="n">
         <v>17.33254177640945</v>
       </c>
       <c r="M5" t="n">
-        <v>17.7892819879886</v>
+        <v>17.8007669820414</v>
       </c>
       <c r="N5" t="n">
-        <v>16.27027107007576</v>
+        <v>16.23167827111164</v>
       </c>
       <c r="O5" t="n">
         <v>191.7</v>
       </c>
       <c r="P5" t="n">
-        <v>0.5080754028534111</v>
+        <v>0.508075402853411</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.87278460421072</v>
+        <v>0.8727351405447924</v>
       </c>
       <c r="R5" t="n">
-        <v>2.66242165402485</v>
+        <v>2.672580861297821</v>
       </c>
       <c r="S5" t="n">
-        <v>44.22709302011246</v>
+        <v>44.22708964100346</v>
       </c>
       <c r="T5" t="n">
         <v>0.4542815674891146</v>
@@ -2952,25 +2952,25 @@
         <v>2.15</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.9621957689523697</v>
+        <v>0.9633683007210493</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.8015399077907205</v>
+        <v>0.7960319377481937</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.1606558738974854</v>
+        <v>0.1673363599926233</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.09646072961333998</v>
+        <v>0.09657827774086095</v>
       </c>
       <c r="AJ5" t="n">
-        <v>17.40892759241855</v>
+        <v>17.40893003994361</v>
       </c>
       <c r="AK5" t="n">
-        <v>17.78400028704073</v>
+        <v>17.78400340704872</v>
       </c>
       <c r="AL5" t="n">
-        <v>16.04384311409884</v>
+        <v>16.04384453352107</v>
       </c>
       <c r="AM5" t="n">
         <v>2.375</v>
@@ -2982,37 +2982,37 @@
         <v>4.425</v>
       </c>
       <c r="AP5" t="n">
-        <v>0.1295443004579283</v>
+        <v>0.128520331135951</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.02927555202764306</v>
+        <v>0.02904414322416661</v>
       </c>
       <c r="AR5" t="n">
         <v>15.125</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.1082616990199313</v>
+        <v>0.1024093949003145</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.007157797852823557</v>
+        <v>0.006770869326000371</v>
       </c>
       <c r="AU5" t="n">
         <v>0.55</v>
       </c>
       <c r="AV5" t="n">
-        <v>0.03637798563577235</v>
+        <v>0.03393471522722393</v>
       </c>
       <c r="AW5" t="n">
-        <v>0.06614178960973566</v>
+        <v>0.06169948252764615</v>
       </c>
       <c r="AX5" t="n">
         <v>22.125</v>
       </c>
       <c r="AY5" t="n">
-        <v>0.001777827087789774</v>
+        <v>0.001536743156611919</v>
       </c>
       <c r="AZ5" t="n">
-        <v>8.035376247039622e-05</v>
+        <v>6.94573178129681e-05</v>
       </c>
       <c r="BA5" t="n">
         <v>52.57918</v>
@@ -3075,7 +3075,7 @@
         <v>0.625</v>
       </c>
       <c r="BU5" t="n">
-        <v>0.1</v>
+        <v>0.075</v>
       </c>
       <c r="BV5" t="n">
         <v>0</v>
@@ -3090,7 +3090,7 @@
         <v>3.7</v>
       </c>
       <c r="BZ5" t="n">
-        <v>0.0749781230464578</v>
+        <v>0.08241463261656461</v>
       </c>
       <c r="CA5" t="n">
         <v>1.025</v>
@@ -3102,7 +3102,7 @@
         <v>15.55</v>
       </c>
       <c r="CD5" t="n">
-        <v>0.0539342690492049</v>
+        <v>0.0584553021006286</v>
       </c>
       <c r="CE5" t="n">
         <v>0.575</v>
@@ -3114,7 +3114,7 @@
         <v>0.475</v>
       </c>
       <c r="CH5" t="n">
-        <v>0.0317434822674841</v>
+        <v>0.0264664265559986</v>
       </c>
       <c r="CI5" t="n">
         <v>22.175</v>
@@ -3144,13 +3144,13 @@
         <v>0.0909090909090909</v>
       </c>
       <c r="CR5" t="n">
-        <v>0.004519774011299435</v>
+        <v>0.003389830508474576</v>
       </c>
       <c r="CS5" t="n">
         <v>0</v>
       </c>
       <c r="CT5" t="n">
-        <v>0.0202643565229467</v>
+        <v>0.0222742251447729</v>
       </c>
       <c r="CU5" t="n">
         <v>0.277027027027027</v>
@@ -3159,7 +3159,7 @@
         <v>0.0202702702702703</v>
       </c>
       <c r="CW5" t="n">
-        <v>0.00346844180987196</v>
+        <v>0.00375918330103638</v>
       </c>
       <c r="CX5" t="n">
         <v>0.0369774919614148</v>
@@ -3168,7 +3168,7 @@
         <v>0.00321543408360129</v>
       </c>
       <c r="CZ5" t="n">
-        <v>0.0668283826426456</v>
+        <v>0.0557187858380769</v>
       </c>
       <c r="DA5" t="n">
         <v>0</v>
@@ -3192,10 +3192,10 @@
         <v>42.225</v>
       </c>
       <c r="DH5" t="n">
-        <v>0.00653550750479464</v>
+        <v>0.00630908692779451</v>
       </c>
       <c r="DI5" t="n">
-        <v>0.0781527531083481</v>
+        <v>0.0775606867969213</v>
       </c>
       <c r="DJ5" t="n">
         <v>0.35</v>
@@ -3207,7 +3207,7 @@
         <v>41.9</v>
       </c>
       <c r="DM5" t="n">
-        <v>0.00383426892728965</v>
+        <v>0.00399370751119172</v>
       </c>
       <c r="DN5" t="n">
         <v>0.0513126491646778</v>
@@ -3258,10 +3258,10 @@
         <v>0.225</v>
       </c>
       <c r="ED5" t="n">
-        <v>0.1401490248739719</v>
+        <v>0.07483339905738831</v>
       </c>
       <c r="EE5" t="n">
-        <v>0.1366240136325359</v>
+        <v>0.07424590326845645</v>
       </c>
       <c r="EF5" t="n">
         <v>3.3</v>
@@ -3321,40 +3321,40 @@
         <v>39.275</v>
       </c>
       <c r="EY5" t="n">
-        <v>1.669226848706603</v>
+        <v>1.589981176657602</v>
       </c>
       <c r="EZ5" t="n">
-        <v>0.7367720528040081</v>
+        <v>0.7367719984613359</v>
       </c>
       <c r="FA5" t="n">
-        <v>-0.03802533503621817</v>
+        <v>-0.1406241556629539</v>
       </c>
       <c r="FB5" t="n">
-        <v>0.1825176466954872</v>
+        <v>0.2222003117902204</v>
       </c>
       <c r="FC5" t="n">
-        <v>0.6611549498513341</v>
+        <v>0.6611549524590373</v>
       </c>
       <c r="FD5" t="n">
-        <v>0.1268074245541357</v>
+        <v>0.110477967816405</v>
       </c>
       <c r="FE5" t="n">
-        <v>1.498709594830871</v>
+        <v>1.431164395064116</v>
       </c>
       <c r="FF5" t="n">
-        <v>0.6233649272471666</v>
+        <v>0.6233649965375662</v>
       </c>
       <c r="FG5" t="n">
-        <v>0.06621548915281891</v>
+        <v>-0.0504265726543963</v>
       </c>
       <c r="FH5" t="n">
-        <v>0.2680606245063245</v>
+        <v>0.3238130973652005</v>
       </c>
       <c r="FI5" t="n">
-        <v>0.7428263483569026</v>
+        <v>0.742826434597373</v>
       </c>
       <c r="FJ5" t="n">
-        <v>-0.2016765141161159</v>
+        <v>-0.2083323554834351</v>
       </c>
       <c r="FK5" t="n">
         <v>479.175</v>
@@ -3385,7 +3385,7 @@
         <v>14</v>
       </c>
       <c r="C6" t="n">
-        <v>19.46632</v>
+        <v>18.39351</v>
       </c>
       <c r="D6" t="n">
         <v>11.8421052631579</v>
@@ -3400,40 +3400,40 @@
         <v>3.026315789473684</v>
       </c>
       <c r="H6" t="n">
-        <v>1.301885877000658</v>
+        <v>1.266335855189123</v>
       </c>
       <c r="I6" t="n">
-        <v>1.032132096000408</v>
+        <v>0.9957001505321578</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2697538000188376</v>
+        <v>0.2706357242637559</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1099370320638021</v>
+        <v>0.1069350179036458</v>
       </c>
       <c r="L6" t="n">
-        <v>16.09604166666667</v>
+        <v>16.09604383680556</v>
       </c>
       <c r="M6" t="n">
         <v>16.83306465718283</v>
       </c>
       <c r="N6" t="n">
-        <v>13.94907332710598</v>
+        <v>13.94907651154891</v>
       </c>
       <c r="O6" t="n">
         <v>193.2631578947368</v>
       </c>
       <c r="P6" t="n">
-        <v>0.5358086603906916</v>
+        <v>0.5358086603906915</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.8801609929287891</v>
+        <v>0.8801609929287892</v>
       </c>
       <c r="R6" t="n">
         <v>3.151052221903349</v>
       </c>
       <c r="S6" t="n">
-        <v>41.11623765197568</v>
+        <v>41.11623468370061</v>
       </c>
       <c r="T6" t="n">
         <v>0.4716417910447761</v>
@@ -3463,34 +3463,34 @@
         <v>8.342105263157896</v>
       </c>
       <c r="AC6" t="n">
-        <v>6.078947368421052</v>
+        <v>6.105263157894737</v>
       </c>
       <c r="AD6" t="n">
-        <v>2.394736842105263</v>
+        <v>2.421052631578947</v>
       </c>
       <c r="AE6" t="n">
-        <v>2.263157894736842</v>
+        <v>2.236842105263158</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.8508512475772908</v>
+        <v>0.844151280428234</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.6615553751195732</v>
+        <v>0.6462227541365122</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.1892958760849739</v>
+        <v>0.1979285217821598</v>
       </c>
       <c r="AI6" t="n">
-        <v>0.101994788233038</v>
+        <v>0.1011916320030622</v>
       </c>
       <c r="AJ6" t="n">
         <v>16.88233346066641</v>
       </c>
       <c r="AK6" t="n">
-        <v>17.79409961783008</v>
+        <v>17.809326171875</v>
       </c>
       <c r="AL6" t="n">
-        <v>14.43327863826308</v>
+        <v>14.35218721277574</v>
       </c>
       <c r="AM6" t="n">
         <v>1.81578947368421</v>
@@ -3502,28 +3502,28 @@
         <v>4.578947368421052</v>
       </c>
       <c r="AP6" t="n">
-        <v>0.166637131405112</v>
+        <v>0.1655880409832063</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.03639202282346528</v>
+        <v>0.03616290530939212</v>
       </c>
       <c r="AR6" t="n">
         <v>17</v>
       </c>
       <c r="AS6" t="n">
-        <v>0.06881198786983364</v>
+        <v>0.07243421119882872</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.004047764344112054</v>
+        <v>0.004260836370958264</v>
       </c>
       <c r="AU6" t="n">
         <v>0.2894736842105263</v>
       </c>
       <c r="AV6" t="n">
-        <v>0.01656857147616776</v>
+        <v>0.01487736274047118</v>
       </c>
       <c r="AW6" t="n">
-        <v>0.05723688277331265</v>
+        <v>0.05139452219009399</v>
       </c>
       <c r="AX6" t="n">
         <v>22.34210526315789</v>
@@ -3532,7 +3532,7 @@
         <v>0.01773611066470805</v>
       </c>
       <c r="AZ6" t="n">
-        <v>0.0007938423903726998</v>
+        <v>0.0007938424605784063</v>
       </c>
       <c r="BA6" t="n">
         <v>51.68858</v>
@@ -3610,7 +3610,7 @@
         <v>3.31578947368421</v>
       </c>
       <c r="BZ6" t="n">
-        <v>0.08838717015705221</v>
+        <v>0.09270892240793301</v>
       </c>
       <c r="CA6" t="n">
         <v>1</v>
@@ -3622,7 +3622,7 @@
         <v>16.1842105263158</v>
       </c>
       <c r="CD6" t="n">
-        <v>0.0621910288341736</v>
+        <v>0.06995720661392341</v>
       </c>
       <c r="CE6" t="n">
         <v>0.6578947368421053</v>
@@ -3634,16 +3634,16 @@
         <v>0.5</v>
       </c>
       <c r="CH6" t="n">
-        <v>0.0292888731744729</v>
+        <v>0.0263819594769494</v>
       </c>
       <c r="CI6" t="n">
         <v>22.7368421052632</v>
       </c>
       <c r="CJ6" t="n">
-        <v>0.009428800230747769</v>
+        <v>0.008880429558063809</v>
       </c>
       <c r="CK6" t="n">
-        <v>0.1052631578947368</v>
+        <v>0.07894736842105263</v>
       </c>
       <c r="CL6" t="n">
         <v>0</v>
@@ -3670,7 +3670,7 @@
         <v>0.001177856301531213</v>
       </c>
       <c r="CT6" t="n">
-        <v>0.0266564478949895</v>
+        <v>0.0279598330694532</v>
       </c>
       <c r="CU6" t="n">
         <v>0.301587301587302</v>
@@ -3679,7 +3679,7 @@
         <v>0.0158730158730159</v>
       </c>
       <c r="CW6" t="n">
-        <v>0.00384269768629617</v>
+        <v>0.00432255907756526</v>
       </c>
       <c r="CX6" t="n">
         <v>0.040650406504065</v>
@@ -3688,16 +3688,16 @@
         <v>0.0048780487804878</v>
       </c>
       <c r="CZ6" t="n">
-        <v>0.0585777508585077</v>
+        <v>0.0527639200812892</v>
       </c>
       <c r="DA6" t="n">
         <v>0.105263157894737</v>
       </c>
       <c r="DB6" t="n">
-        <v>0.000414692624299615</v>
+        <v>0.000390574439532227</v>
       </c>
       <c r="DC6" t="n">
-        <v>0.00462962962962963</v>
+        <v>0.00347222222222222</v>
       </c>
       <c r="DD6" t="n">
         <v>0</v>
@@ -3712,7 +3712,7 @@
         <v>44.2105263157895</v>
       </c>
       <c r="DH6" t="n">
-        <v>0.00610157421657017</v>
+        <v>0.006121521904355</v>
       </c>
       <c r="DI6" t="n">
         <v>0.068452380952381</v>
@@ -3727,10 +3727,10 @@
         <v>42.7368421052632</v>
       </c>
       <c r="DM6" t="n">
-        <v>0.00442933713274049</v>
+        <v>0.00463133228236231</v>
       </c>
       <c r="DN6" t="n">
-        <v>0.0529556650246305</v>
+        <v>0.0523399014778325</v>
       </c>
       <c r="DO6" t="n">
         <v>0.184210526315789</v>
@@ -3778,10 +3778,10 @@
         <v>0.2631578947368421</v>
       </c>
       <c r="ED6" t="n">
-        <v>0.5122714936733246</v>
+        <v>0.4840398422981563</v>
       </c>
       <c r="EE6" t="n">
-        <v>0.4510346282469599</v>
+        <v>0.422184567702444</v>
       </c>
       <c r="EF6" t="n">
         <v>3.052631578947369</v>
@@ -3841,40 +3841,40 @@
         <v>33.42105263157895</v>
       </c>
       <c r="EY6" t="n">
-        <v>1.781959649371473</v>
+        <v>1.615627153531501</v>
       </c>
       <c r="EZ6" t="n">
-        <v>0.9127234596955148</v>
+        <v>0.9127235918452865</v>
       </c>
       <c r="FA6" t="n">
-        <v>0.02331132588810042</v>
+        <v>-0.09720698449956744</v>
       </c>
       <c r="FB6" t="n">
-        <v>0.2019363708401981</v>
+        <v>0.187057481907112</v>
       </c>
       <c r="FC6" t="n">
-        <v>0.7909957601835853</v>
+        <v>0.7909958237095883</v>
       </c>
       <c r="FD6" t="n">
-        <v>-0.1551743774519612</v>
+        <v>-0.1878280078009185</v>
       </c>
       <c r="FE6" t="n">
-        <v>1.288319559767842</v>
+        <v>1.168161867872665</v>
       </c>
       <c r="FF6" t="n">
-        <v>0.5873508114171656</v>
+        <v>0.5873507525967924</v>
       </c>
       <c r="FG6" t="n">
-        <v>0.05452820109693628</v>
+        <v>-0.03477085332729315</v>
       </c>
       <c r="FH6" t="n">
-        <v>0.1767120592688259</v>
+        <v>0.1863203318299431</v>
       </c>
       <c r="FI6" t="n">
-        <v>0.5206260034128239</v>
+        <v>0.520625972434094</v>
       </c>
       <c r="FJ6" t="n">
-        <v>-0.05440429951219509</v>
+        <v>-0.09711930419628818</v>
       </c>
       <c r="FK6" t="n">
         <v>490.1052631578947</v>
@@ -3905,7 +3905,7 @@
         <v>21</v>
       </c>
       <c r="C7" t="n">
-        <v>10.805668</v>
+        <v>8.925943</v>
       </c>
       <c r="D7" t="n">
         <v>13.18421052631579</v>
@@ -3920,19 +3920,19 @@
         <v>3.605263157894737</v>
       </c>
       <c r="H7" t="n">
-        <v>1.319501258040729</v>
+        <v>1.273021824657917</v>
       </c>
       <c r="I7" t="n">
-        <v>0.9926892934661162</v>
+        <v>0.9318375509036215</v>
       </c>
       <c r="J7" t="n">
-        <v>0.3268119686675307</v>
+        <v>0.341184274930703</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1000819253826332</v>
+        <v>0.09655653597589976</v>
       </c>
       <c r="L7" t="n">
-        <v>17.27647049650698</v>
+        <v>17.27646854728044</v>
       </c>
       <c r="M7" t="n">
         <v>18.05596454326923</v>
@@ -3944,16 +3944,16 @@
         <v>201.6842105263158</v>
       </c>
       <c r="P7" t="n">
-        <v>0.5558936219915721</v>
+        <v>0.5558936219915722</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.8440975448275121</v>
+        <v>0.8440977073734208</v>
       </c>
       <c r="R7" t="n">
         <v>2.828230795910751</v>
       </c>
       <c r="S7" t="n">
-        <v>43.47587489522213</v>
+        <v>43.4758781695306</v>
       </c>
       <c r="T7" t="n">
         <v>0.362012987012987</v>
@@ -3965,13 +3965,13 @@
         <v>2.157894736842105</v>
       </c>
       <c r="W7" t="n">
-        <v>45.70766493447808</v>
+        <v>45.70766846475373</v>
       </c>
       <c r="X7" t="n">
         <v>7.888888888888889</v>
       </c>
       <c r="Y7" t="n">
-        <v>5.793929357891588</v>
+        <v>5.793929805391318</v>
       </c>
       <c r="Z7" t="n">
         <v>0.7592928926020099</v>
@@ -3992,25 +3992,25 @@
         <v>3</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.013904707212197</v>
+        <v>1.01751014903972</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.8123548850417137</v>
+        <v>0.8140513563626691</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.2015498132493935</v>
+        <v>0.2034587763298891</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.0835756645285385</v>
+        <v>0.08387284682267658</v>
       </c>
       <c r="AJ7" t="n">
         <v>18.07179958649674</v>
       </c>
       <c r="AK7" t="n">
-        <v>19.02643754502882</v>
+        <v>19.02644035932997</v>
       </c>
       <c r="AL7" t="n">
-        <v>15.16600920024671</v>
+        <v>15.16600812945449</v>
       </c>
       <c r="AM7" t="n">
         <v>2.552631578947369</v>
@@ -4022,37 +4022,37 @@
         <v>5.131578947368421</v>
       </c>
       <c r="AP7" t="n">
-        <v>0.2250561826176157</v>
+        <v>0.2426029189342731</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.04385710007105118</v>
+        <v>0.04727645776210687</v>
       </c>
       <c r="AR7" t="n">
         <v>13.60526315789474</v>
       </c>
       <c r="AS7" t="n">
-        <v>0.04845785810367057</v>
+        <v>0.04992609074045169</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.00356169918289037</v>
+        <v>0.003669615870979354</v>
       </c>
       <c r="AU7" t="n">
         <v>0.5</v>
       </c>
       <c r="AV7" t="n">
-        <v>0.04357176153969608</v>
+        <v>0.03872088834300245</v>
       </c>
       <c r="AW7" t="n">
-        <v>0.08714352155986585</v>
+        <v>0.07744177391654566</v>
       </c>
       <c r="AX7" t="n">
         <v>23.21052631578947</v>
       </c>
       <c r="AY7" t="n">
-        <v>0.00972616839173593</v>
+        <v>0.009934382072012676</v>
       </c>
       <c r="AZ7" t="n">
-        <v>0.0004190412643545069</v>
+        <v>0.0004280118985511278</v>
       </c>
       <c r="BA7" t="n">
         <v>53.9282</v>
@@ -4130,7 +4130,7 @@
         <v>4.92105263157895</v>
       </c>
       <c r="BZ7" t="n">
-        <v>0.120371534293027</v>
+        <v>0.124566651096469</v>
       </c>
       <c r="CA7" t="n">
         <v>1.736842105263158</v>
@@ -4142,7 +4142,7 @@
         <v>14.7894736842105</v>
       </c>
       <c r="CD7" t="n">
-        <v>0.0546656308303538</v>
+        <v>0.056299530459862</v>
       </c>
       <c r="CE7" t="n">
         <v>0.6842105263157895</v>
@@ -4154,13 +4154,13 @@
         <v>0.447368421052632</v>
       </c>
       <c r="CH7" t="n">
-        <v>0.023875695114073</v>
+        <v>0.0195416319061463</v>
       </c>
       <c r="CI7" t="n">
         <v>22.7368421052632</v>
       </c>
       <c r="CJ7" t="n">
-        <v>0.00263695379621104</v>
+        <v>0.00305096383549665</v>
       </c>
       <c r="CK7" t="n">
         <v>0.05263157894736842</v>
@@ -4190,7 +4190,7 @@
         <v>0</v>
       </c>
       <c r="CT7" t="n">
-        <v>0.0244605222487832</v>
+        <v>0.0253130127401913</v>
       </c>
       <c r="CU7" t="n">
         <v>0.352941176470588</v>
@@ -4199,7 +4199,7 @@
         <v>0.0374331550802139</v>
       </c>
       <c r="CW7" t="n">
-        <v>0.00369625286699614</v>
+        <v>0.00380672975791307</v>
       </c>
       <c r="CX7" t="n">
         <v>0.0462633451957295</v>
@@ -4208,13 +4208,13 @@
         <v>0</v>
       </c>
       <c r="CZ7" t="n">
-        <v>0.0533691995284137</v>
+        <v>0.0436812919728896</v>
       </c>
       <c r="DA7" t="n">
         <v>0.0588235294117647</v>
       </c>
       <c r="DB7" t="n">
-        <v>0.000115977134555578</v>
+        <v>0.000134185905119887</v>
       </c>
       <c r="DC7" t="n">
         <v>0.00231481481481481</v>
@@ -4232,7 +4232,7 @@
         <v>42.4473684210526</v>
       </c>
       <c r="DH7" t="n">
-        <v>0.00769922796865464</v>
+        <v>0.008037817825534961</v>
       </c>
       <c r="DI7" t="n">
         <v>0.08493490390576559</v>
@@ -4247,7 +4247,7 @@
         <v>42.8947368421053</v>
       </c>
       <c r="DM7" t="n">
-        <v>0.00469870742844658</v>
+        <v>0.00474321096221362</v>
       </c>
       <c r="DN7" t="n">
         <v>0.06993865030674851</v>
@@ -4298,10 +4298,10 @@
         <v>0.6578947368421053</v>
       </c>
       <c r="ED7" t="n">
-        <v>0.28435969274295</v>
+        <v>0.2348932616020504</v>
       </c>
       <c r="EE7" t="n">
-        <v>0.3055965563184337</v>
+        <v>0.2555116783631475</v>
       </c>
       <c r="EF7" t="n">
         <v>3.842105263157895</v>
@@ -4361,40 +4361,40 @@
         <v>39.3421052631579</v>
       </c>
       <c r="EY7" t="n">
-        <v>2.072996290890794</v>
+        <v>1.971159721675672</v>
       </c>
       <c r="EZ7" t="n">
-        <v>0.9144034832715988</v>
+        <v>0.9144034060208421</v>
       </c>
       <c r="FA7" t="n">
-        <v>0.221553553680056</v>
+        <v>0.1318041955758082</v>
       </c>
       <c r="FB7" t="n">
-        <v>0.2802055508486535</v>
+        <v>0.2785549319324721</v>
       </c>
       <c r="FC7" t="n">
-        <v>0.6288885852616084</v>
+        <v>0.6288884815416838</v>
       </c>
       <c r="FD7" t="n">
-        <v>0.02794511760830095</v>
+        <v>0.01750862519992025</v>
       </c>
       <c r="FE7" t="n">
-        <v>1.600971185063061</v>
+        <v>1.59951417736317</v>
       </c>
       <c r="FF7" t="n">
-        <v>0.7183337807655334</v>
+        <v>0.718333643910132</v>
       </c>
       <c r="FG7" t="n">
-        <v>0.05592133325377577</v>
+        <v>-0.01720217733006728</v>
       </c>
       <c r="FH7" t="n">
-        <v>0.3067089806457883</v>
+        <v>0.3377699370152856</v>
       </c>
       <c r="FI7" t="n">
-        <v>0.8369584769794816</v>
+        <v>0.836958532858836</v>
       </c>
       <c r="FJ7" t="n">
-        <v>-0.3169702829204892</v>
+        <v>-0.2763646265589877</v>
       </c>
       <c r="FK7" t="n">
         <v>543.3421052631579</v>
@@ -4425,55 +4425,55 @@
         <v>8</v>
       </c>
       <c r="C8" t="n">
-        <v>3.873883</v>
+        <v>3.0228367</v>
       </c>
       <c r="D8" t="n">
         <v>10.26315789473684</v>
       </c>
       <c r="E8" t="n">
-        <v>7.263157894736842</v>
+        <v>7.236842105263158</v>
       </c>
       <c r="F8" t="n">
-        <v>3.105263157894737</v>
+        <v>3.078947368421053</v>
       </c>
       <c r="G8" t="n">
-        <v>3</v>
+        <v>3.026315789473684</v>
       </c>
       <c r="H8" t="n">
-        <v>1.017715961917451</v>
+        <v>0.9476645569268026</v>
       </c>
       <c r="I8" t="n">
-        <v>0.7855576251290346</v>
+        <v>0.7214134459040666</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2321583578657163</v>
+        <v>0.2262511086454125</v>
       </c>
       <c r="K8" t="n">
-        <v>0.09916206751114283</v>
+        <v>0.0923365470690605</v>
       </c>
       <c r="L8" t="n">
-        <v>17.99602363782051</v>
+        <v>17.9960211338141</v>
       </c>
       <c r="M8" t="n">
-        <v>18.2641990772192</v>
+        <v>18.25596946022727</v>
       </c>
       <c r="N8" t="n">
-        <v>17.34675250137061</v>
+        <v>17.37441087805707</v>
       </c>
       <c r="O8" t="n">
         <v>195.1052631578947</v>
       </c>
       <c r="P8" t="n">
-        <v>0.4758680896943166</v>
+        <v>0.4758680896943164</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.8823124926382689</v>
+        <v>0.8820167854683238</v>
       </c>
       <c r="R8" t="n">
-        <v>3.037655736023543</v>
+        <v>3.035300798907289</v>
       </c>
       <c r="S8" t="n">
-        <v>45.88372897867104</v>
+        <v>45.88373218314192</v>
       </c>
       <c r="T8" t="n">
         <v>0.3772290809327846</v>
@@ -4512,22 +4512,22 @@
         <v>3.026315789473684</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.9751532548352292</v>
+        <v>0.9299714973098353</v>
       </c>
       <c r="AG8" t="n">
-        <v>0.7304582148790359</v>
+        <v>0.6886716120337185</v>
       </c>
       <c r="AH8" t="n">
-        <v>0.2446950456911796</v>
+        <v>0.2412998818326741</v>
       </c>
       <c r="AI8" t="n">
-        <v>0.08538209238360005</v>
+        <v>0.08142608431627124</v>
       </c>
       <c r="AJ8" t="n">
-        <v>18.33840590797811</v>
+        <v>18.33840478290611</v>
       </c>
       <c r="AK8" t="n">
-        <v>19.23399233444357</v>
+        <v>19.23399080378135</v>
       </c>
       <c r="AL8" t="n">
         <v>15.8541259765625</v>
@@ -4542,37 +4542,37 @@
         <v>4.473684210526316</v>
       </c>
       <c r="AP8" t="n">
-        <v>0.1214728065227207</v>
+        <v>0.1309708890897271</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.02715274305904613</v>
+        <v>0.02927584648132324</v>
       </c>
       <c r="AR8" t="n">
         <v>15.97368421052632</v>
       </c>
       <c r="AS8" t="n">
-        <v>0.05319184116332939</v>
+        <v>0.05591574267141129</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.003329967156273529</v>
+        <v>0.003500491429789259</v>
       </c>
       <c r="AU8" t="n">
         <v>1.078947368421053</v>
       </c>
       <c r="AV8" t="n">
-        <v>0.05589543930009792</v>
+        <v>0.03781851676390752</v>
       </c>
       <c r="AW8" t="n">
-        <v>0.05180553692143138</v>
+        <v>0.03505130511958424</v>
       </c>
       <c r="AX8" t="n">
         <v>22.39473684210526</v>
       </c>
       <c r="AY8" t="n">
-        <v>0.001598270511940906</v>
+        <v>0.001545956456347516</v>
       </c>
       <c r="AZ8" t="n">
-        <v>7.136813096798404e-05</v>
+        <v>6.903213318590551e-05</v>
       </c>
       <c r="BA8" t="n">
         <v>49.786034</v>
@@ -4623,7 +4623,7 @@
         <v>0.02631578947368421</v>
       </c>
       <c r="BQ8" t="n">
-        <v>0.6842105263157895</v>
+        <v>0.7105263157894737</v>
       </c>
       <c r="BR8" t="n">
         <v>0.02631578947368421</v>
@@ -4650,7 +4650,7 @@
         <v>3.76315789473684</v>
       </c>
       <c r="BZ8" t="n">
-        <v>0.149027545237914</v>
+        <v>0.158685229338804</v>
       </c>
       <c r="CA8" t="n">
         <v>1.631578947368421</v>
@@ -4662,7 +4662,7 @@
         <v>14.5789473684211</v>
       </c>
       <c r="CD8" t="n">
-        <v>0.0606372221127937</v>
+        <v>0.0604237787131416</v>
       </c>
       <c r="CE8" t="n">
         <v>0.6842105263157895</v>
@@ -4674,13 +4674,13 @@
         <v>0.578947368421053</v>
       </c>
       <c r="CH8" t="n">
-        <v>0.032533119873781</v>
+        <v>0.0191415303362239</v>
       </c>
       <c r="CI8" t="n">
         <v>24.0263157894737</v>
       </c>
       <c r="CJ8" t="n">
-        <v>0.00249715514579102</v>
+        <v>0.00304934409397997</v>
       </c>
       <c r="CK8" t="n">
         <v>0.1052631578947368</v>
@@ -4695,7 +4695,7 @@
         <v>0.005882352941176471</v>
       </c>
       <c r="CO8" t="n">
-        <v>0.042833607907743</v>
+        <v>0.04448105436573312</v>
       </c>
       <c r="CP8" t="n">
         <v>0.001647446457990115</v>
@@ -4710,7 +4710,7 @@
         <v>0</v>
       </c>
       <c r="CT8" t="n">
-        <v>0.0396017194627882</v>
+        <v>0.0421681037315956</v>
       </c>
       <c r="CU8" t="n">
         <v>0.433566433566434</v>
@@ -4719,7 +4719,7 @@
         <v>0.027972027972028</v>
       </c>
       <c r="CW8" t="n">
-        <v>0.00415923190891527</v>
+        <v>0.00414459111458128</v>
       </c>
       <c r="CX8" t="n">
         <v>0.0469314079422383</v>
@@ -4728,13 +4728,13 @@
         <v>0.00180505415162455</v>
       </c>
       <c r="CZ8" t="n">
-        <v>0.0561935684897683</v>
+        <v>0.0330626449801705</v>
       </c>
       <c r="DA8" t="n">
         <v>0.136363636363636</v>
       </c>
       <c r="DB8" t="n">
-        <v>0.000103934171231135</v>
+        <v>0.000126916845813638</v>
       </c>
       <c r="DC8" t="n">
         <v>0.00438116100766703</v>
@@ -4752,10 +4752,10 @@
         <v>43.9210526315789</v>
       </c>
       <c r="DH8" t="n">
-        <v>0.00528581103855725</v>
+        <v>0.00515131267549893</v>
       </c>
       <c r="DI8" t="n">
-        <v>0.0683043738765728</v>
+        <v>0.06890353505092869</v>
       </c>
       <c r="DJ8" t="n">
         <v>0.105263157894737</v>
@@ -4767,7 +4767,7 @@
         <v>42.9473684210526</v>
       </c>
       <c r="DM8" t="n">
-        <v>0.00569755715482375</v>
+        <v>0.00561850211199592</v>
       </c>
       <c r="DN8" t="n">
         <v>0.0704656862745098</v>
@@ -4818,10 +4818,10 @@
         <v>0.1842105263157895</v>
       </c>
       <c r="ED8" t="n">
-        <v>0.1019442787295894</v>
+        <v>0.07954832519355573</v>
       </c>
       <c r="EE8" t="n">
-        <v>0.04256270904290049</v>
+        <v>0.01769305765628815</v>
       </c>
       <c r="EF8" t="n">
         <v>1.947368421052632</v>
@@ -4881,40 +4881,40 @@
         <v>36.10526315789474</v>
       </c>
       <c r="EY8" t="n">
-        <v>1.746219705030518</v>
+        <v>1.516999961832832</v>
       </c>
       <c r="EZ8" t="n">
-        <v>0.6722196795438465</v>
+        <v>0.6722197665979988</v>
       </c>
       <c r="FA8" t="n">
-        <v>0.1054163550663935</v>
+        <v>-0.07970498306186576</v>
       </c>
       <c r="FB8" t="n">
-        <v>0.2126563668349072</v>
+        <v>0.2526878056753623</v>
       </c>
       <c r="FC8" t="n">
-        <v>0.745818373796187</v>
+        <v>0.745818520454984</v>
       </c>
       <c r="FD8" t="n">
-        <v>0.01067042860409452</v>
+        <v>-0.0781334375238253</v>
       </c>
       <c r="FE8" t="n">
-        <v>1.28881270595287</v>
+        <v>1.074575014804539</v>
       </c>
       <c r="FF8" t="n">
-        <v>0.6877861213625261</v>
+        <v>0.687786112931606</v>
       </c>
       <c r="FG8" t="n">
-        <v>0.04201462634495998</v>
+        <v>-0.1289636484886471</v>
       </c>
       <c r="FH8" t="n">
-        <v>0.09912818650666036</v>
+        <v>0.08845048640413504</v>
       </c>
       <c r="FI8" t="n">
-        <v>0.5639858203695008</v>
+        <v>0.5639858208596706</v>
       </c>
       <c r="FJ8" t="n">
-        <v>-0.104071648822068</v>
+        <v>-0.1366532853387884</v>
       </c>
       <c r="FK8" t="n">
         <v>431.0263157894737</v>
@@ -4945,7 +4945,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>4.2771964</v>
+        <v>3.4703565</v>
       </c>
       <c r="D9" t="n">
         <v>9.405405405405405</v>
@@ -4960,25 +4960,25 @@
         <v>2.648648648648649</v>
       </c>
       <c r="H9" t="n">
-        <v>1.097725364002021</v>
+        <v>1.058570145755201</v>
       </c>
       <c r="I9" t="n">
-        <v>0.8064048870189769</v>
+        <v>0.7787031958232055</v>
       </c>
       <c r="J9" t="n">
-        <v>0.2913204783926139</v>
+        <v>0.2798669414242377</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1167121865283484</v>
+        <v>0.1125491240928913</v>
       </c>
       <c r="L9" t="n">
         <v>17.16889900996767</v>
       </c>
       <c r="M9" t="n">
-        <v>18.20976171875</v>
+        <v>18.209759765625</v>
       </c>
       <c r="N9" t="n">
-        <v>14.51363076969069</v>
+        <v>14.51362952407526</v>
       </c>
       <c r="O9" t="n">
         <v>196.3243243243243</v>
@@ -4987,13 +4987,13 @@
         <v>0.4796199013416907</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.8714092747282853</v>
+        <v>0.8714091191689319</v>
       </c>
       <c r="R9" t="n">
-        <v>2.810947096120781</v>
+        <v>2.81094709612078</v>
       </c>
       <c r="S9" t="n">
-        <v>43.72047334558823</v>
+        <v>43.72048241582817</v>
       </c>
       <c r="T9" t="n">
         <v>0.3783783783783784</v>
@@ -5005,13 +5005,13 @@
         <v>1.648648648648649</v>
       </c>
       <c r="W9" t="n">
-        <v>45.40368100838379</v>
+        <v>45.40368464718212</v>
       </c>
       <c r="X9" t="n">
         <v>8.845493562231759</v>
       </c>
       <c r="Y9" t="n">
-        <v>5.132973156212238</v>
+        <v>5.132973567585363</v>
       </c>
       <c r="Z9" t="n">
         <v>0.7687024211550569</v>
@@ -5032,16 +5032,16 @@
         <v>3.513513513513514</v>
       </c>
       <c r="AF9" t="n">
-        <v>0.9603146600562174</v>
+        <v>0.9436010722372983</v>
       </c>
       <c r="AG9" t="n">
-        <v>0.6736113731120084</v>
+        <v>0.6433613485581166</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.286703276510879</v>
+        <v>0.3002397312178604</v>
       </c>
       <c r="AI9" t="n">
-        <v>0.08927548470808633</v>
+        <v>0.08772171442233138</v>
       </c>
       <c r="AJ9" t="n">
         <v>17.38936381124372</v>
@@ -5050,7 +5050,7 @@
         <v>18.99532306728078</v>
       </c>
       <c r="AL9" t="n">
-        <v>14.0786142202524</v>
+        <v>14.07861703725962</v>
       </c>
       <c r="AM9" t="n">
         <v>2.27027027027027</v>
@@ -5062,37 +5062,37 @@
         <v>3.918918918918919</v>
       </c>
       <c r="AP9" t="n">
-        <v>0.1590204560701307</v>
+        <v>0.1459827664862009</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.04057763527179586</v>
+        <v>0.03725077530433392</v>
       </c>
       <c r="AR9" t="n">
         <v>16.35135135135135</v>
       </c>
       <c r="AS9" t="n">
-        <v>0.08572194946778787</v>
+        <v>0.08757641201687826</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.005242499044118834</v>
+        <v>0.005355912594755819</v>
       </c>
       <c r="AU9" t="n">
         <v>0.3513513513513514</v>
       </c>
       <c r="AV9" t="n">
-        <v>0.01823884258801873</v>
+        <v>0.0165378113805845</v>
       </c>
       <c r="AW9" t="n">
-        <v>0.05191055169472328</v>
+        <v>0.04706915525289682</v>
       </c>
       <c r="AX9" t="n">
         <v>24.24324324324324</v>
       </c>
       <c r="AY9" t="n">
-        <v>0.02833923586719745</v>
+        <v>0.02976995334029198</v>
       </c>
       <c r="AZ9" t="n">
-        <v>0.001168954066741161</v>
+        <v>0.001227969044161215</v>
       </c>
       <c r="BA9" t="n">
         <v>49.970524</v>
@@ -5170,7 +5170,7 @@
         <v>4.27027027027027</v>
       </c>
       <c r="BZ9" t="n">
-        <v>0.198334951557823</v>
+        <v>0.211590203129359</v>
       </c>
       <c r="CA9" t="n">
         <v>2.27027027027027</v>
@@ -5182,7 +5182,7 @@
         <v>18.1351351351351</v>
       </c>
       <c r="CD9" t="n">
-        <v>0.06260728308729629</v>
+        <v>0.06590256274904351</v>
       </c>
       <c r="CE9" t="n">
         <v>0.6756756756756757</v>
@@ -5194,13 +5194,13 @@
         <v>0.432432432432432</v>
       </c>
       <c r="CH9" t="n">
-        <v>0.0238474024258353</v>
+        <v>0.020256039485134</v>
       </c>
       <c r="CI9" t="n">
         <v>24.3513513513514</v>
       </c>
       <c r="CJ9" t="n">
-        <v>0.00191364256111351</v>
+        <v>0.0024909258291528</v>
       </c>
       <c r="CK9" t="n">
         <v>0.08108108108108109</v>
@@ -5230,7 +5230,7 @@
         <v>0.001114827201783724</v>
       </c>
       <c r="CT9" t="n">
-        <v>0.0464455266542073</v>
+        <v>0.0495496097999283</v>
       </c>
       <c r="CU9" t="n">
         <v>0.531645569620253</v>
@@ -5239,7 +5239,7 @@
         <v>0.0443037974683544</v>
       </c>
       <c r="CW9" t="n">
-        <v>0.00345226478292406</v>
+        <v>0.00363397171884642</v>
       </c>
       <c r="CX9" t="n">
         <v>0.03725782414307</v>
@@ -5248,13 +5248,13 @@
         <v>0.00596125186289121</v>
       </c>
       <c r="CZ9" t="n">
-        <v>0.0551471188664436</v>
+        <v>0.0468420870602131</v>
       </c>
       <c r="DA9" t="n">
         <v>0</v>
       </c>
       <c r="DB9" t="n">
-        <v>7.85846556728079e-05</v>
+        <v>0.000102291071785409</v>
       </c>
       <c r="DC9" t="n">
         <v>0.00332963374028857</v>
@@ -5272,7 +5272,7 @@
         <v>44.8648648648649</v>
       </c>
       <c r="DH9" t="n">
-        <v>0.00649328806314124</v>
+        <v>0.00623799749167569</v>
       </c>
       <c r="DI9" t="n">
         <v>0.0590361445783133</v>
@@ -5287,7 +5287,7 @@
         <v>47.1891891891892</v>
       </c>
       <c r="DM9" t="n">
-        <v>0.00607561327747463</v>
+        <v>0.00636246824319147</v>
       </c>
       <c r="DN9" t="n">
         <v>0.0744558991981672</v>
@@ -5338,10 +5338,10 @@
         <v>0.1081081081081081</v>
       </c>
       <c r="ED9" t="n">
-        <v>0.115599909344235</v>
+        <v>0.09379340023607821</v>
       </c>
       <c r="EE9" t="n">
-        <v>0.1374107083758792</v>
+        <v>0.1149690747261047</v>
       </c>
       <c r="EF9" t="n">
         <v>2.324324324324324</v>
@@ -5401,40 +5401,40 @@
         <v>39.4054054054054</v>
       </c>
       <c r="EY9" t="n">
-        <v>1.455894961550429</v>
+        <v>1.341034546494484</v>
       </c>
       <c r="EZ9" t="n">
-        <v>0.7284139232659662</v>
+        <v>0.7284139685735509</v>
       </c>
       <c r="FA9" t="n">
-        <v>0.1573578500868501</v>
+        <v>0.1202193609363324</v>
       </c>
       <c r="FB9" t="n">
-        <v>0.1795718714192107</v>
+        <v>0.1163206540450857</v>
       </c>
       <c r="FC9" t="n">
-        <v>0.5886036807016747</v>
+        <v>0.5886036352682356</v>
       </c>
       <c r="FD9" t="n">
-        <v>-0.1980524146174257</v>
+        <v>-0.2125229378910483</v>
       </c>
       <c r="FE9" t="n">
-        <v>1.293390978052205</v>
+        <v>1.217752696316991</v>
       </c>
       <c r="FF9" t="n">
-        <v>0.7095862381361626</v>
+        <v>0.7095862969353393</v>
       </c>
       <c r="FG9" t="n">
-        <v>-0.003446521489201365</v>
+        <v>-0.1006816580287508</v>
       </c>
       <c r="FH9" t="n">
-        <v>0.1739899013191462</v>
+        <v>0.192240338420143</v>
       </c>
       <c r="FI9" t="n">
-        <v>0.6305421880773596</v>
+        <v>0.6305422273439329</v>
       </c>
       <c r="FJ9" t="n">
-        <v>-0.217383059748524</v>
+        <v>-0.2140368390828371</v>
       </c>
       <c r="FK9" t="n">
         <v>429.5405405405405</v>
@@ -5465,7 +5465,7 @@
         <v>-4</v>
       </c>
       <c r="C10" t="n">
-        <v>-4.032949</v>
+        <v>-2.4671297</v>
       </c>
       <c r="D10" t="n">
         <v>10</v>
@@ -5480,40 +5480,40 @@
         <v>2.837837837837838</v>
       </c>
       <c r="H10" t="n">
-        <v>1.000133664221377</v>
+        <v>0.9813961390707944</v>
       </c>
       <c r="I10" t="n">
-        <v>0.7568236889468657</v>
+        <v>0.7242465945892036</v>
       </c>
       <c r="J10" t="n">
-        <v>0.2433099639098588</v>
+        <v>0.2571495418134775</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1000133514404297</v>
+        <v>0.09813962369351774</v>
       </c>
       <c r="L10" t="n">
-        <v>17.5423511402027</v>
+        <v>17.54235509923986</v>
       </c>
       <c r="M10" t="n">
         <v>18.5208984375</v>
       </c>
       <c r="N10" t="n">
-        <v>15.07269228980655</v>
+        <v>15.07269461495536</v>
       </c>
       <c r="O10" t="n">
         <v>193</v>
       </c>
       <c r="P10" t="n">
-        <v>0.4936938696056915</v>
+        <v>0.4936938696056916</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.8397727001213057</v>
+        <v>0.8397727736970804</v>
       </c>
       <c r="R10" t="n">
-        <v>2.911533861528726</v>
+        <v>2.911533861528724</v>
       </c>
       <c r="S10" t="n">
-        <v>43.38693266369047</v>
+        <v>43.38692956349206</v>
       </c>
       <c r="T10" t="n">
         <v>0.481029810298103</v>
@@ -5525,13 +5525,13 @@
         <v>1.594594594594595</v>
       </c>
       <c r="W10" t="n">
-        <v>43.90131285663338</v>
+        <v>43.90131657156443</v>
       </c>
       <c r="X10" t="n">
         <v>10.27637721755369</v>
       </c>
       <c r="Y10" t="n">
-        <v>4.272061245634594</v>
+        <v>4.272061607136608</v>
       </c>
       <c r="Z10" t="n">
         <v>0.7860036628003774</v>
@@ -5552,25 +5552,25 @@
         <v>3.621621621621621</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.087956591232403</v>
+        <v>1.026899644651929</v>
       </c>
       <c r="AG10" t="n">
-        <v>0.754044850331706</v>
+        <v>0.7030677700767646</v>
       </c>
       <c r="AH10" t="n">
-        <v>0.333911729523459</v>
+        <v>0.323831858138579</v>
       </c>
       <c r="AI10" t="n">
-        <v>0.09493960974351415</v>
+        <v>0.08961153030395508</v>
       </c>
       <c r="AJ10" t="n">
-        <v>17.90929024174528</v>
+        <v>17.909291393352</v>
       </c>
       <c r="AK10" t="n">
-        <v>18.32191540948276</v>
+        <v>18.32191709321121</v>
       </c>
       <c r="AL10" t="n">
-        <v>17.01629729769123</v>
+        <v>17.01629547574627</v>
       </c>
       <c r="AM10" t="n">
         <v>2.162162162162162</v>
@@ -5582,37 +5582,37 @@
         <v>4.135135135135135</v>
       </c>
       <c r="AP10" t="n">
-        <v>0.1197950310904432</v>
+        <v>0.1305574338782478</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.02897004208533592</v>
+        <v>0.03157270967570785</v>
       </c>
       <c r="AR10" t="n">
         <v>15.24324324324324</v>
       </c>
       <c r="AS10" t="n">
-        <v>0.1023316277895828</v>
+        <v>0.106074049087191</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.006713245354645641</v>
+        <v>0.006958757731931429</v>
       </c>
       <c r="AU10" t="n">
         <v>0.4864864864864865</v>
       </c>
       <c r="AV10" t="n">
-        <v>0.01565124704880086</v>
+        <v>0.01481714840928042</v>
       </c>
       <c r="AW10" t="n">
-        <v>0.0321720110045539</v>
+        <v>0.03045747346348233</v>
       </c>
       <c r="AX10" t="n">
         <v>20.62162162162162</v>
       </c>
       <c r="AY10" t="n">
-        <v>0.005532058157228134</v>
+        <v>0.005700912074865522</v>
       </c>
       <c r="AZ10" t="n">
-        <v>0.0002682649409630352</v>
+        <v>0.0002764531388039045</v>
       </c>
       <c r="BA10" t="n">
         <v>52.77026</v>
@@ -5690,7 +5690,7 @@
         <v>4.81081081081081</v>
       </c>
       <c r="BZ10" t="n">
-        <v>0.15262930616233</v>
+        <v>0.152396035620571</v>
       </c>
       <c r="CA10" t="n">
         <v>1.783783783783784</v>
@@ -5702,7 +5702,7 @@
         <v>16.2432432432432</v>
       </c>
       <c r="CD10" t="n">
-        <v>0.08984714713753079</v>
+        <v>0.084233377229523</v>
       </c>
       <c r="CE10" t="n">
         <v>0.8918918918918919</v>
@@ -5714,13 +5714,13 @@
         <v>0.72972972972973</v>
       </c>
       <c r="CH10" t="n">
-        <v>0.07372229234189601</v>
+        <v>0.0696868103349934</v>
       </c>
       <c r="CI10" t="n">
         <v>22.4324324324324</v>
       </c>
       <c r="CJ10" t="n">
-        <v>0.0177129884124608</v>
+        <v>0.0175156388809351</v>
       </c>
       <c r="CK10" t="n">
         <v>0.08108108108108109</v>
@@ -5750,7 +5750,7 @@
         <v>0</v>
       </c>
       <c r="CT10" t="n">
-        <v>0.0317263147804175</v>
+        <v>0.0316778327641862</v>
       </c>
       <c r="CU10" t="n">
         <v>0.370786516853933</v>
@@ -5759,7 +5759,7 @@
         <v>0.0224719101123595</v>
       </c>
       <c r="CW10" t="n">
-        <v>0.00553135506920331</v>
+        <v>0.0051857488921002</v>
       </c>
       <c r="CX10" t="n">
         <v>0.0549084858569052</v>
@@ -5768,13 +5768,13 @@
         <v>0.00332778702163062</v>
       </c>
       <c r="CZ10" t="n">
-        <v>0.101026835264983</v>
+        <v>0.0954967428136755</v>
       </c>
       <c r="DA10" t="n">
         <v>0.148148148148148</v>
       </c>
       <c r="DB10" t="n">
-        <v>0.000789615116923688</v>
+        <v>0.000780817614980491</v>
       </c>
       <c r="DC10" t="n">
         <v>0.0036144578313253</v>
@@ -5792,7 +5792,7 @@
         <v>40.4864864864865</v>
       </c>
       <c r="DH10" t="n">
-        <v>0.00600965828379897</v>
+        <v>0.00635149004621722</v>
       </c>
       <c r="DI10" t="n">
         <v>0.0700934579439252</v>
@@ -5807,7 +5807,7 @@
         <v>44.2162162162162</v>
       </c>
       <c r="DM10" t="n">
-        <v>0.00755179423866179</v>
+        <v>0.00732382585483542</v>
       </c>
       <c r="DN10" t="n">
         <v>0.08190709046454769</v>
@@ -5858,10 +5858,10 @@
         <v>-0.05405405405405406</v>
       </c>
       <c r="ED10" t="n">
-        <v>-0.1089985990846479</v>
+        <v>-0.06667918450123556</v>
       </c>
       <c r="EE10" t="n">
-        <v>-0.08782293103836677</v>
+        <v>-0.04550350678933633</v>
       </c>
       <c r="EF10" t="n">
         <v>2.702702702702703</v>
@@ -5921,40 +5921,40 @@
         <v>39.37837837837838</v>
       </c>
       <c r="EY10" t="n">
-        <v>1.348753909001479</v>
+        <v>1.168990374165209</v>
       </c>
       <c r="EZ10" t="n">
-        <v>0.7531972620132807</v>
+        <v>0.7531972450984491</v>
       </c>
       <c r="FA10" t="n">
-        <v>0.0910674073808902</v>
+        <v>-0.06818423561147742</v>
       </c>
       <c r="FB10" t="n">
-        <v>0.1130156201889386</v>
+        <v>0.1010103955915248</v>
       </c>
       <c r="FC10" t="n">
-        <v>0.5119136257751568</v>
+        <v>0.5119136852791181</v>
       </c>
       <c r="FD10" t="n">
-        <v>-0.1204399826458177</v>
+        <v>-0.1289465662494705</v>
       </c>
       <c r="FE10" t="n">
-        <v>1.671987707852512</v>
+        <v>1.466155961457942</v>
       </c>
       <c r="FF10" t="n">
-        <v>0.7290184932786066</v>
+        <v>0.7290185037496928</v>
       </c>
       <c r="FG10" t="n">
-        <v>0.09328530416698069</v>
+        <v>-0.07036227672486692</v>
       </c>
       <c r="FH10" t="n">
-        <v>0.231286152467333</v>
+        <v>0.2760358326439116</v>
       </c>
       <c r="FI10" t="n">
-        <v>0.6610139257501106</v>
+        <v>0.6610139256494271</v>
       </c>
       <c r="FJ10" t="n">
-        <v>-0.04364581069805556</v>
+        <v>-0.1329939173948434</v>
       </c>
       <c r="FK10" t="n">
         <v>473.4864864864865</v>
@@ -5985,7 +5985,7 @@
         <v>-6</v>
       </c>
       <c r="C11" t="n">
-        <v>-6.414605</v>
+        <v>-4.0496716</v>
       </c>
       <c r="D11" t="n">
         <v>9.594594594594595</v>
@@ -6000,22 +6000,22 @@
         <v>2.891891891891892</v>
       </c>
       <c r="H11" t="n">
-        <v>0.7799902393205745</v>
+        <v>0.7927486421288671</v>
       </c>
       <c r="I11" t="n">
-        <v>0.5499846844657047</v>
+        <v>0.5459797648159234</v>
       </c>
       <c r="J11" t="n">
-        <v>0.2300055536466676</v>
+        <v>0.2467688668292721</v>
       </c>
       <c r="K11" t="n">
-        <v>0.08129476627833407</v>
+        <v>0.08262449989856128</v>
       </c>
       <c r="L11" t="n">
-        <v>17.85119113116197</v>
+        <v>17.85118975572183</v>
       </c>
       <c r="M11" t="n">
-        <v>19.14350940335181</v>
+        <v>19.14351137222782</v>
       </c>
       <c r="N11" t="n">
         <v>14.85590911580023</v>
@@ -6024,16 +6024,16 @@
         <v>200.4324324324324</v>
       </c>
       <c r="P11" t="n">
-        <v>0.516146947464424</v>
+        <v>0.5161469474644239</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.8506610391648028</v>
+        <v>0.850661039164803</v>
       </c>
       <c r="R11" t="n">
-        <v>2.849433559495732</v>
+        <v>2.849433559495731</v>
       </c>
       <c r="S11" t="n">
-        <v>42.59903276983788</v>
+        <v>42.59904276877133</v>
       </c>
       <c r="T11" t="n">
         <v>0.486646884272997</v>
@@ -6072,22 +6072,22 @@
         <v>2.837837837837838</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.016249832269308</v>
+        <v>0.9657262616060875</v>
       </c>
       <c r="AG11" t="n">
-        <v>0.7587726587379301</v>
+        <v>0.7139598292273444</v>
       </c>
       <c r="AH11" t="n">
-        <v>0.257477161247988</v>
+        <v>0.2517664169741644</v>
       </c>
       <c r="AI11" t="n">
-        <v>0.1093059362367142</v>
+        <v>0.1038717336432878</v>
       </c>
       <c r="AJ11" t="n">
-        <v>16.85399538971657</v>
+        <v>16.85399822856105</v>
       </c>
       <c r="AK11" t="n">
-        <v>17.43815172267259</v>
+        <v>17.43815376569038</v>
       </c>
       <c r="AL11" t="n">
         <v>15.52435942150298</v>
@@ -6102,37 +6102,37 @@
         <v>4.108108108108108</v>
       </c>
       <c r="AP11" t="n">
-        <v>0.1384480587534002</v>
+        <v>0.1508802590841377</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0.03370117513757003</v>
+        <v>0.03672743157336587</v>
       </c>
       <c r="AR11" t="n">
         <v>18.05405405405405</v>
       </c>
       <c r="AS11" t="n">
-        <v>0.06322151724551175</v>
+        <v>0.07352783067806347</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.003501790369342187</v>
+        <v>0.004072649393252983</v>
       </c>
       <c r="AU11" t="n">
         <v>0.4324324324324325</v>
       </c>
       <c r="AV11" t="n">
-        <v>0.02075465549589009</v>
+        <v>0.01444928928253216</v>
       </c>
       <c r="AW11" t="n">
-        <v>0.04799513891339302</v>
+        <v>0.03341398388147354</v>
       </c>
       <c r="AX11" t="n">
         <v>27.02702702702703</v>
       </c>
       <c r="AY11" t="n">
-        <v>0.007581322529428714</v>
+        <v>0.007911493045252722</v>
       </c>
       <c r="AZ11" t="n">
-        <v>0.0002805089354515075</v>
+        <v>0.0002927252352237701</v>
       </c>
       <c r="BA11" t="n">
         <v>50.067955</v>
@@ -6210,7 +6210,7 @@
         <v>4.02702702702703</v>
       </c>
       <c r="BZ11" t="n">
-        <v>0.181435066753545</v>
+        <v>0.177303181218638</v>
       </c>
       <c r="CA11" t="n">
         <v>1.648648648648649</v>
@@ -6222,7 +6222,7 @@
         <v>17.0810810810811</v>
       </c>
       <c r="CD11" t="n">
-        <v>0.0543678030623375</v>
+        <v>0.0566976110174044</v>
       </c>
       <c r="CE11" t="n">
         <v>0.6756756756756757</v>
@@ -6234,13 +6234,13 @@
         <v>0.405405405405405</v>
       </c>
       <c r="CH11" t="n">
-        <v>0.018464778172406</v>
+        <v>0.0128399851429905</v>
       </c>
       <c r="CI11" t="n">
         <v>23.7837837837838</v>
       </c>
       <c r="CJ11" t="n">
-        <v>0.00320951489580644</v>
+        <v>0.00492564165914381</v>
       </c>
       <c r="CK11" t="n">
         <v>0.1081081081081081</v>
@@ -6270,7 +6270,7 @@
         <v>0</v>
       </c>
       <c r="CT11" t="n">
-        <v>0.0450543493232471</v>
+        <v>0.044028304567273</v>
       </c>
       <c r="CU11" t="n">
         <v>0.409395973154362</v>
@@ -6279,7 +6279,7 @@
         <v>0.0469798657718121</v>
       </c>
       <c r="CW11" t="n">
-        <v>0.00318292537821999</v>
+        <v>0.00331932230840755</v>
       </c>
       <c r="CX11" t="n">
         <v>0.0395569620253165</v>
@@ -6288,13 +6288,13 @@
         <v>0</v>
       </c>
       <c r="CZ11" t="n">
-        <v>0.0455464522043864</v>
+        <v>0.0316719651222229</v>
       </c>
       <c r="DA11" t="n">
         <v>0</v>
       </c>
       <c r="DB11" t="n">
-        <v>0.000134945508431305</v>
+        <v>0.000207100842486728</v>
       </c>
       <c r="DC11" t="n">
         <v>0.00454545454545455</v>
@@ -6312,7 +6312,7 @@
         <v>49.6216216216216</v>
       </c>
       <c r="DH11" t="n">
-        <v>0.00463518753550411</v>
+        <v>0.0049730105597469</v>
       </c>
       <c r="DI11" t="n">
         <v>0.0582788671023965</v>
@@ -6327,7 +6327,7 @@
         <v>45.2972972972973</v>
       </c>
       <c r="DM11" t="n">
-        <v>0.00568416181213816</v>
+        <v>0.0055580895954214</v>
       </c>
       <c r="DN11" t="n">
         <v>0.06264916467780431</v>
@@ -6378,10 +6378,10 @@
         <v>-0.2432432432432433</v>
       </c>
       <c r="ED11" t="n">
-        <v>-0.173367711337837</v>
+        <v>-0.1094506040618226</v>
       </c>
       <c r="EE11" t="n">
-        <v>-0.2362595957678718</v>
+        <v>-0.1729776226990932</v>
       </c>
       <c r="EF11" t="n">
         <v>2.243243243243243</v>
@@ -6441,40 +6441,40 @@
         <v>34.91891891891892</v>
       </c>
       <c r="EY11" t="n">
-        <v>1.199432523065322</v>
+        <v>1.089267454437307</v>
       </c>
       <c r="EZ11" t="n">
-        <v>0.6296659244878872</v>
+        <v>0.6296659256960895</v>
       </c>
       <c r="FA11" t="n">
-        <v>-0.05022173354754577</v>
+        <v>-0.1625563271746442</v>
       </c>
       <c r="FB11" t="n">
-        <v>0.1504679135474804</v>
+        <v>0.1746386857451619</v>
       </c>
       <c r="FC11" t="n">
-        <v>0.5336201448698301</v>
+        <v>0.5336201215112532</v>
       </c>
       <c r="FD11" t="n">
-        <v>-0.06409972178674228</v>
+        <v>-0.08610108708553771</v>
       </c>
       <c r="FE11" t="n">
-        <v>1.406582835209053</v>
+        <v>1.249981611161619</v>
       </c>
       <c r="FF11" t="n">
-        <v>0.7837914308986148</v>
+        <v>0.7837915376231477</v>
       </c>
       <c r="FG11" t="n">
-        <v>0.05670510821447179</v>
+        <v>-0.1271970007266547</v>
       </c>
       <c r="FH11" t="n">
-        <v>0.1907613767008926</v>
+        <v>0.2371544417597957</v>
       </c>
       <c r="FI11" t="n">
-        <v>0.517466686326205</v>
+        <v>0.5174667494673584</v>
       </c>
       <c r="FJ11" t="n">
-        <v>-0.1420665171903533</v>
+        <v>-0.1611592824243613</v>
       </c>
       <c r="FK11" t="n">
         <v>471.2162162162162</v>
@@ -6505,7 +6505,7 @@
         <v>-10</v>
       </c>
       <c r="C12" t="n">
-        <v>-17.339476</v>
+        <v>-15.794479</v>
       </c>
       <c r="D12" t="n">
         <v>9.5</v>
@@ -6520,25 +6520,25 @@
         <v>2.666666666666667</v>
       </c>
       <c r="H12" t="n">
-        <v>0.8921659156266186</v>
+        <v>0.8583571155452066</v>
       </c>
       <c r="I12" t="n">
-        <v>0.6356456854070226</v>
+        <v>0.6026247577327821</v>
       </c>
       <c r="J12" t="n">
-        <v>0.2565202339448863</v>
+        <v>0.2557323515001271</v>
       </c>
       <c r="K12" t="n">
-        <v>0.09391220271238807</v>
+        <v>0.09035339690091317</v>
       </c>
       <c r="L12" t="n">
-        <v>19.11638940286915</v>
+        <v>19.11639083059211</v>
       </c>
       <c r="M12" t="n">
-        <v>20.46898024644309</v>
+        <v>20.4689742917937</v>
       </c>
       <c r="N12" t="n">
-        <v>15.650390625</v>
+        <v>15.65039189656576</v>
       </c>
       <c r="O12" t="n">
         <v>197.4444444444445</v>
@@ -6547,10 +6547,10 @@
         <v>0.5136755246561552</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.8744622691554216</v>
+        <v>0.8744621909883944</v>
       </c>
       <c r="R12" t="n">
-        <v>2.559171474327384</v>
+        <v>2.559171474327383</v>
       </c>
       <c r="S12" t="n">
         <v>41.20968796711509</v>
@@ -6583,34 +6583,34 @@
         <v>13.30555555555556</v>
       </c>
       <c r="AC12" t="n">
-        <v>9.833333333333334</v>
+        <v>9.805555555555555</v>
       </c>
       <c r="AD12" t="n">
-        <v>4.111111111111111</v>
+        <v>4.083333333333333</v>
       </c>
       <c r="AE12" t="n">
-        <v>3.472222222222222</v>
+        <v>3.5</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.308526284164853</v>
+        <v>1.231800984177325</v>
       </c>
       <c r="AG12" t="n">
-        <v>1.030373529427581</v>
+        <v>0.9552251622080803</v>
       </c>
       <c r="AH12" t="n">
-        <v>0.2781527635848356</v>
+        <v>0.2765757957369917</v>
       </c>
       <c r="AI12" t="n">
-        <v>0.09834436086125065</v>
+        <v>0.09257794023804475</v>
       </c>
       <c r="AJ12" t="n">
-        <v>17.85481227165971</v>
+        <v>17.8548102329071</v>
       </c>
       <c r="AK12" t="n">
-        <v>18.29216460319562</v>
+        <v>18.28583265093839</v>
       </c>
       <c r="AL12" t="n">
-        <v>16.61623046875</v>
+        <v>16.64727105034722</v>
       </c>
       <c r="AM12" t="n">
         <v>3.083333333333333</v>
@@ -6622,28 +6622,28 @@
         <v>3.638888888888889</v>
       </c>
       <c r="AP12" t="n">
-        <v>0.1531652464634842</v>
+        <v>0.1604396151896152</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0.04209120946986075</v>
+        <v>0.04409028191602867</v>
       </c>
       <c r="AR12" t="n">
         <v>19.25</v>
       </c>
       <c r="AS12" t="n">
-        <v>0.07327088910258478</v>
+        <v>0.07071346648606575</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.003806280023263818</v>
+        <v>0.00367342686068272</v>
       </c>
       <c r="AU12" t="n">
         <v>0.3888888888888889</v>
       </c>
       <c r="AV12" t="n">
-        <v>0.02911015677576264</v>
+        <v>0.02360532857063744</v>
       </c>
       <c r="AW12" t="n">
-        <v>0.0748546804700579</v>
+        <v>0.06069941180092948</v>
       </c>
       <c r="AX12" t="n">
         <v>21.88888888888889</v>
@@ -6730,7 +6730,7 @@
         <v>4.38888888888889</v>
       </c>
       <c r="BZ12" t="n">
-        <v>0.130571374682606</v>
+        <v>0.134304129583244</v>
       </c>
       <c r="CA12" t="n">
         <v>1.583333333333333</v>
@@ -6742,10 +6742,10 @@
         <v>16.6944444444444</v>
       </c>
       <c r="CD12" t="n">
-        <v>0.0988615979957912</v>
+        <v>0.0987812290485534</v>
       </c>
       <c r="CE12" t="n">
-        <v>1.194444444444444</v>
+        <v>1.222222222222222</v>
       </c>
       <c r="CF12" t="n">
         <v>0.08333333333333333</v>
@@ -6754,13 +6754,13 @@
         <v>0.611111111111111</v>
       </c>
       <c r="CH12" t="n">
-        <v>0.0246696670850118</v>
+        <v>0.018817047497982</v>
       </c>
       <c r="CI12" t="n">
         <v>21.6388888888889</v>
       </c>
       <c r="CJ12" t="n">
-        <v>0.0240501286461949</v>
+        <v>0.0246733949623174</v>
       </c>
       <c r="CK12" t="n">
         <v>0.08333333333333333</v>
@@ -6790,7 +6790,7 @@
         <v>0</v>
       </c>
       <c r="CT12" t="n">
-        <v>0.0297504376761521</v>
+        <v>0.030600940124898</v>
       </c>
       <c r="CU12" t="n">
         <v>0.360759493670886</v>
@@ -6799,22 +6799,22 @@
         <v>0.0316455696202532</v>
       </c>
       <c r="CW12" t="n">
-        <v>0.00592182638641205</v>
+        <v>0.00591701199726733</v>
       </c>
       <c r="CX12" t="n">
-        <v>0.0715474209650582</v>
+        <v>0.07321131447587351</v>
       </c>
       <c r="CY12" t="n">
         <v>0.00499168053244592</v>
       </c>
       <c r="CZ12" t="n">
-        <v>0.0403685461391102</v>
+        <v>0.0307915346188979</v>
       </c>
       <c r="DA12" t="n">
         <v>0.136363636363636</v>
       </c>
       <c r="DB12" t="n">
-        <v>0.00111143082495066</v>
+        <v>0.00114023394700957</v>
       </c>
       <c r="DC12" t="n">
         <v>0.00385109114249037</v>
@@ -6832,7 +6832,7 @@
         <v>45.1666666666667</v>
       </c>
       <c r="DH12" t="n">
-        <v>0.00567941442773498</v>
+        <v>0.0056619702816596</v>
       </c>
       <c r="DI12" t="n">
         <v>0.0590405904059041</v>
@@ -6847,10 +6847,10 @@
         <v>43.3333333333333</v>
       </c>
       <c r="DM12" t="n">
-        <v>0.00641890978201842</v>
+        <v>0.00638251854823186</v>
       </c>
       <c r="DN12" t="n">
-        <v>0.08012820512820509</v>
+        <v>0.0807692307692308</v>
       </c>
       <c r="DO12" t="n">
         <v>0.333333333333333</v>
@@ -6898,10 +6898,10 @@
         <v>-0.1111111111111111</v>
       </c>
       <c r="ED12" t="n">
-        <v>-0.4816520404484537</v>
+        <v>-0.4387355181905959</v>
       </c>
       <c r="EE12" t="n">
-        <v>-0.4163603625363774</v>
+        <v>-0.373443861802419</v>
       </c>
       <c r="EF12" t="n">
         <v>1.611111111111111</v>
@@ -6961,40 +6961,40 @@
         <v>39.61111111111111</v>
       </c>
       <c r="EY12" t="n">
-        <v>1.425805488290886</v>
+        <v>1.16426267216189</v>
       </c>
       <c r="EZ12" t="n">
-        <v>0.5102937512824105</v>
+        <v>0.5102937015083929</v>
       </c>
       <c r="FA12" t="n">
-        <v>0.2477358597227269</v>
+        <v>0.07789305152578486</v>
       </c>
       <c r="FB12" t="n">
-        <v>0.1419079565546579</v>
+        <v>0.127247683186498</v>
       </c>
       <c r="FC12" t="n">
-        <v>0.7609687691761388</v>
+        <v>0.7609686909450425</v>
       </c>
       <c r="FD12" t="n">
-        <v>-0.2351007812346021</v>
+        <v>-0.3121405174024403</v>
       </c>
       <c r="FE12" t="n">
-        <v>1.578982305195596</v>
+        <v>1.420682698695196</v>
       </c>
       <c r="FF12" t="n">
-        <v>0.8668978187359042</v>
+        <v>0.8668978021790584</v>
       </c>
       <c r="FG12" t="n">
-        <v>-0.04443316544509596</v>
+        <v>-0.1913119032979012</v>
       </c>
       <c r="FH12" t="n">
-        <v>0.2239067375452982</v>
+        <v>0.2535575376823545</v>
       </c>
       <c r="FI12" t="n">
-        <v>0.7028136365115643</v>
+        <v>0.7028137155705028</v>
       </c>
       <c r="FJ12" t="n">
-        <v>-0.1699837840472659</v>
+        <v>-0.2110556040683554</v>
       </c>
       <c r="FK12" t="n">
         <v>473.8333333333333</v>
@@ -7025,7 +7025,7 @@
         <v>-12</v>
       </c>
       <c r="C13" t="n">
-        <v>-10.910891</v>
+        <v>-8.935314999999999</v>
       </c>
       <c r="D13" t="n">
         <v>9.324324324324325</v>
@@ -7040,40 +7040,40 @@
         <v>2.756756756756757</v>
       </c>
       <c r="H13" t="n">
-        <v>0.8352779910169743</v>
+        <v>0.8141324065021567</v>
       </c>
       <c r="I13" t="n">
-        <v>0.6046072563810928</v>
+        <v>0.584575849610406</v>
       </c>
       <c r="J13" t="n">
-        <v>0.2306707334528501</v>
+        <v>0.2295565415375136</v>
       </c>
       <c r="K13" t="n">
-        <v>0.08958053588867188</v>
+        <v>0.08731275917827219</v>
       </c>
       <c r="L13" t="n">
-        <v>17.47656957653986</v>
+        <v>17.47657382246377</v>
       </c>
       <c r="M13" t="n">
-        <v>18.45739494920268</v>
+        <v>18.45739695859054</v>
       </c>
       <c r="N13" t="n">
-        <v>15.13989975873162</v>
+        <v>15.13990215226716</v>
       </c>
       <c r="O13" t="n">
         <v>199.8918918918919</v>
       </c>
       <c r="P13" t="n">
-        <v>0.4792445808443175</v>
+        <v>0.4792445808443176</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.8844907043575907</v>
+        <v>0.8844907809177688</v>
       </c>
       <c r="R13" t="n">
-        <v>2.880634760499069</v>
+        <v>2.880634760499068</v>
       </c>
       <c r="S13" t="n">
-        <v>46.23785175060193</v>
+        <v>46.23785488563403</v>
       </c>
       <c r="T13" t="n">
         <v>0.4094292803970223</v>
@@ -7112,16 +7112,16 @@
         <v>2.54054054054054</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.193058811329507</v>
+        <v>1.119154405754966</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.9302852520266095</v>
+        <v>0.8615838007347004</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.2627735458868178</v>
+        <v>0.2575705944484956</v>
       </c>
       <c r="AI13" t="n">
-        <v>0.1058589560236576</v>
+        <v>0.09930147312813811</v>
       </c>
       <c r="AJ13" t="n">
         <v>18.26155833145983</v>
@@ -7130,7 +7130,7 @@
         <v>18.99861074158282</v>
       </c>
       <c r="AL13" t="n">
-        <v>15.72891430144614</v>
+        <v>15.72891560006649</v>
       </c>
       <c r="AM13" t="n">
         <v>2.72972972972973</v>
@@ -7142,37 +7142,37 @@
         <v>2.945945945945946</v>
       </c>
       <c r="AP13" t="n">
-        <v>0.1009191184531193</v>
+        <v>0.1055295719588931</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0.03425694824358739</v>
+        <v>0.03582196498135908</v>
       </c>
       <c r="AR13" t="n">
         <v>16.97297297297297</v>
       </c>
       <c r="AS13" t="n">
-        <v>0.07291123187924559</v>
+        <v>0.07311976741294603</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.004295725351685931</v>
+        <v>0.004308012260752878</v>
       </c>
       <c r="AU13" t="n">
         <v>0.7297297297297297</v>
       </c>
       <c r="AV13" t="n">
-        <v>0.05598144323841946</v>
+        <v>0.04969398063179609</v>
       </c>
       <c r="AW13" t="n">
-        <v>0.07671531041463216</v>
+        <v>0.06809915878154614</v>
       </c>
       <c r="AX13" t="n">
         <v>22.35135135135135</v>
       </c>
       <c r="AY13" t="n">
-        <v>0.0008589399827493204</v>
+        <v>0.001213221131144343</v>
       </c>
       <c r="AZ13" t="n">
-        <v>3.842899560063465e-05</v>
+        <v>5.427954274769129e-05</v>
       </c>
       <c r="BA13" t="n">
         <v>52.91248</v>
@@ -7250,7 +7250,7 @@
         <v>4.35135135135135</v>
       </c>
       <c r="BZ13" t="n">
-        <v>0.136962876252427</v>
+        <v>0.142722457697665</v>
       </c>
       <c r="CA13" t="n">
         <v>1.351351351351351</v>
@@ -7262,7 +7262,7 @@
         <v>13.4054054054054</v>
       </c>
       <c r="CD13" t="n">
-        <v>0.102526984857144</v>
+        <v>0.0978787290435788</v>
       </c>
       <c r="CE13" t="n">
         <v>0.6756756756756757</v>
@@ -7274,13 +7274,13 @@
         <v>0.486486486486487</v>
       </c>
       <c r="CH13" t="n">
-        <v>0.0210624937773556</v>
+        <v>0.0145826567644002</v>
       </c>
       <c r="CI13" t="n">
         <v>21.5945945945946</v>
       </c>
       <c r="CJ13" t="n">
-        <v>0.00222119105023307</v>
+        <v>0.00238674959620914</v>
       </c>
       <c r="CK13" t="n">
         <v>0.02702702702702703</v>
@@ -7310,7 +7310,7 @@
         <v>0</v>
       </c>
       <c r="CT13" t="n">
-        <v>0.0314759349230654</v>
+        <v>0.0327995726780862</v>
       </c>
       <c r="CU13" t="n">
         <v>0.31055900621118</v>
@@ -7319,7 +7319,7 @@
         <v>0.0124223602484472</v>
       </c>
       <c r="CW13" t="n">
-        <v>0.00764818153073711</v>
+        <v>0.00730143823931294</v>
       </c>
       <c r="CX13" t="n">
         <v>0.0504032258064516</v>
@@ -7328,13 +7328,13 @@
         <v>0.00806451612903226</v>
       </c>
       <c r="CZ13" t="n">
-        <v>0.0432951284779443</v>
+        <v>0.0299754606352912</v>
       </c>
       <c r="DA13" t="n">
         <v>0</v>
       </c>
       <c r="DB13" t="n">
-        <v>0.000102858659397526</v>
+        <v>0.000110525325481525</v>
       </c>
       <c r="DC13" t="n">
         <v>0.00125156445556946</v>
@@ -7352,7 +7352,7 @@
         <v>43</v>
       </c>
       <c r="DH13" t="n">
-        <v>0.00536443541291223</v>
+        <v>0.00533852436346202</v>
       </c>
       <c r="DI13" t="n">
         <v>0.0641106222501571</v>
@@ -7367,7 +7367,7 @@
         <v>39.8378378378378</v>
       </c>
       <c r="DM13" t="n">
-        <v>0.00659607999845632</v>
+        <v>0.00646547643591623</v>
       </c>
       <c r="DN13" t="n">
         <v>0.0637720488466757</v>
@@ -7418,10 +7418,10 @@
         <v>-0.4864864864864865</v>
       </c>
       <c r="ED13" t="n">
-        <v>-0.2948889402118889</v>
+        <v>-0.2414949818237408</v>
       </c>
       <c r="EE13" t="n">
-        <v>-0.3577808190036464</v>
+        <v>-0.3050219996555432</v>
       </c>
       <c r="EF13" t="n">
         <v>2.486486486486486</v>
@@ -7481,40 +7481,40 @@
         <v>43.5945945945946</v>
       </c>
       <c r="EY13" t="n">
-        <v>1.364654358979818</v>
+        <v>1.16559087827399</v>
       </c>
       <c r="EZ13" t="n">
-        <v>0.6901831836313814</v>
+        <v>0.6901832416250899</v>
       </c>
       <c r="FA13" t="n">
-        <v>-0.062114636841658</v>
+        <v>-0.2230748072065212</v>
       </c>
       <c r="FB13" t="n">
-        <v>0.2574798479625905</v>
+        <v>0.2845217304404926</v>
       </c>
       <c r="FC13" t="n">
-        <v>0.5983750687257664</v>
+        <v>0.5983749692504471</v>
       </c>
       <c r="FD13" t="n">
-        <v>-0.1192689792479615</v>
+        <v>-0.1844142268764208</v>
       </c>
       <c r="FE13" t="n">
-        <v>1.76846123708261</v>
+        <v>1.501440848450403</v>
       </c>
       <c r="FF13" t="n">
-        <v>0.6911773689695306</v>
+        <v>0.6911774668339137</v>
       </c>
       <c r="FG13" t="n">
-        <v>0.08773371315485723</v>
+        <v>-0.09160608818402162</v>
       </c>
       <c r="FH13" t="n">
-        <v>0.1689404880980382</v>
+        <v>0.1389524579752942</v>
       </c>
       <c r="FI13" t="n">
-        <v>0.7922083228021055</v>
+        <v>0.7922083743520685</v>
       </c>
       <c r="FJ13" t="n">
-        <v>0.02837530385098747</v>
+        <v>-0.02931730678254688</v>
       </c>
       <c r="FK13" t="n">
         <v>460.6216216216216</v>
@@ -7545,7 +7545,7 @@
         <v>-9</v>
       </c>
       <c r="C14" t="n">
-        <v>4.466963</v>
+        <v>5.758287</v>
       </c>
       <c r="D14" t="n">
         <v>10.10810810810811</v>
@@ -7560,22 +7560,22 @@
         <v>2.702702702702703</v>
       </c>
       <c r="H14" t="n">
-        <v>1.058031450655009</v>
+        <v>1.035012453391745</v>
       </c>
       <c r="I14" t="n">
-        <v>0.8338190111759547</v>
+        <v>0.8081228894156378</v>
       </c>
       <c r="J14" t="n">
-        <v>0.2242124279507914</v>
+        <v>0.2268895594705198</v>
       </c>
       <c r="K14" t="n">
-        <v>0.1046715496695615</v>
+        <v>0.1023942569997859</v>
       </c>
       <c r="L14" t="n">
         <v>16.73291407294452</v>
       </c>
       <c r="M14" t="n">
-        <v>17.28323698391879</v>
+        <v>17.28323876596715</v>
       </c>
       <c r="N14" t="n">
         <v>15.225029296875</v>
@@ -7584,16 +7584,16 @@
         <v>195.8108108108108</v>
       </c>
       <c r="P14" t="n">
-        <v>0.5106765574580376</v>
+        <v>0.5106765574580377</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.8779190174702883</v>
+        <v>0.8779191550874123</v>
       </c>
       <c r="R14" t="n">
         <v>2.707995695162435</v>
       </c>
       <c r="S14" t="n">
-        <v>47.78372645980789</v>
+        <v>47.78373040950455</v>
       </c>
       <c r="T14" t="n">
         <v>0.4454545454545454</v>
@@ -7605,13 +7605,13 @@
         <v>1.540540540540541</v>
       </c>
       <c r="W14" t="n">
-        <v>47.1786007589488</v>
+        <v>47.17860783869506</v>
       </c>
       <c r="X14" t="n">
         <v>7.8890625</v>
       </c>
       <c r="Y14" t="n">
-        <v>5.98025440398638</v>
+        <v>5.980255301399255</v>
       </c>
       <c r="Z14" t="n">
         <v>0.7666289525397487</v>
@@ -7632,16 +7632,16 @@
         <v>2.783783783783784</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.9995595192587053</v>
+        <v>0.942910102573601</v>
       </c>
       <c r="AG14" t="n">
-        <v>0.738806496600847</v>
+        <v>0.6810496127283251</v>
       </c>
       <c r="AH14" t="n">
-        <v>0.2607530282457938</v>
+        <v>0.2618604878316054</v>
       </c>
       <c r="AI14" t="n">
-        <v>0.1030186623915988</v>
+        <v>0.09718015665463418</v>
       </c>
       <c r="AJ14" t="n">
         <v>17.24792174442897</v>
@@ -7650,7 +7650,7 @@
         <v>18.2617244720459</v>
       </c>
       <c r="AL14" t="n">
-        <v>14.72818496852245</v>
+        <v>14.72818733881978</v>
       </c>
       <c r="AM14" t="n">
         <v>2.162162162162162</v>
@@ -7662,37 +7662,37 @@
         <v>4.72972972972973</v>
       </c>
       <c r="AP14" t="n">
-        <v>0.1544319126956366</v>
+        <v>0.1568163242191076</v>
       </c>
       <c r="AQ14" t="n">
-        <v>0.03265131269182478</v>
+        <v>0.03315544945853097</v>
       </c>
       <c r="AR14" t="n">
         <v>14.08108108108108</v>
       </c>
       <c r="AS14" t="n">
-        <v>0.04383248745186909</v>
+        <v>0.0476431644244774</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.003112863441804092</v>
+        <v>0.003383487749008208</v>
       </c>
       <c r="AU14" t="n">
         <v>0.3243243243243243</v>
       </c>
       <c r="AV14" t="n">
-        <v>0.01780069903848139</v>
+        <v>0.01185548803894906</v>
       </c>
       <c r="AW14" t="n">
-        <v>0.05488548676172892</v>
+        <v>0.03655441850423813</v>
       </c>
       <c r="AX14" t="n">
         <v>24.97297297297297</v>
       </c>
       <c r="AY14" t="n">
-        <v>0.008147329041683997</v>
+        <v>0.01057458281315662</v>
       </c>
       <c r="AZ14" t="n">
-        <v>0.0003262458619101223</v>
+        <v>0.000423441104816668</v>
       </c>
       <c r="BA14" t="n">
         <v>50.98328</v>
@@ -7770,7 +7770,7 @@
         <v>4.08108108108108</v>
       </c>
       <c r="BZ14" t="n">
-        <v>0.139307360542384</v>
+        <v>0.147994124959852</v>
       </c>
       <c r="CA14" t="n">
         <v>1.567567567567568</v>
@@ -7782,7 +7782,7 @@
         <v>16.6756756756757</v>
       </c>
       <c r="CD14" t="n">
-        <v>0.07362663826426941</v>
+        <v>0.0717691045657203</v>
       </c>
       <c r="CE14" t="n">
         <v>0.7027027027027027</v>
@@ -7794,13 +7794,13 @@
         <v>0.378378378378378</v>
       </c>
       <c r="CH14" t="n">
-        <v>0.0458129500919903</v>
+        <v>0.039589796592859</v>
       </c>
       <c r="CI14" t="n">
         <v>25.1621621621622</v>
       </c>
       <c r="CJ14" t="n">
-        <v>0.00200607703142875</v>
+        <v>0.00250745987569964</v>
       </c>
       <c r="CK14" t="n">
         <v>0.05405405405405406</v>
@@ -7830,7 +7830,7 @@
         <v>0.001082251082251082</v>
       </c>
       <c r="CT14" t="n">
-        <v>0.0341349184907825</v>
+        <v>0.0362634627234857</v>
       </c>
       <c r="CU14" t="n">
         <v>0.384105960264901</v>
@@ -7839,7 +7839,7 @@
         <v>0.033112582781457</v>
       </c>
       <c r="CW14" t="n">
-        <v>0.00441521183984593</v>
+        <v>0.00430382012934507</v>
       </c>
       <c r="CX14" t="n">
         <v>0.0421393841166937</v>
@@ -7848,13 +7848,13 @@
         <v>0.00324149108589951</v>
       </c>
       <c r="CZ14" t="n">
-        <v>0.121077077729361</v>
+        <v>0.104630180767604</v>
       </c>
       <c r="DA14" t="n">
         <v>0.142857142857143</v>
       </c>
       <c r="DB14" t="n">
-        <v>7.972594202525119e-05</v>
+        <v>9.965200365293929e-05</v>
       </c>
       <c r="DC14" t="n">
         <v>0.00214822771213749</v>
@@ -7872,7 +7872,7 @@
         <v>44.1081081081081</v>
       </c>
       <c r="DH14" t="n">
-        <v>0.00508324772703881</v>
+        <v>0.00514394220183877</v>
       </c>
       <c r="DI14" t="n">
         <v>0.0612745098039216</v>
@@ -7887,7 +7887,7 @@
         <v>46.2972972972973</v>
       </c>
       <c r="DM14" t="n">
-        <v>0.00563214274783338</v>
+        <v>0.00565606477451269</v>
       </c>
       <c r="DN14" t="n">
         <v>0.060128429655575</v>
@@ -7938,10 +7938,10 @@
         <v>-0.2972972972972973</v>
       </c>
       <c r="ED14" t="n">
-        <v>0.1207286828273051</v>
+        <v>0.1556293859675124</v>
       </c>
       <c r="EE14" t="n">
-        <v>0.05847193340997438</v>
+        <v>0.0921023512208784</v>
       </c>
       <c r="EF14" t="n">
         <v>2.486486486486486</v>
@@ -8001,40 +8001,40 @@
         <v>37.67567567567568</v>
       </c>
       <c r="EY14" t="n">
-        <v>1.502562905686933</v>
+        <v>1.416124951799174</v>
       </c>
       <c r="EZ14" t="n">
-        <v>0.7659661687306456</v>
+        <v>0.765966264178624</v>
       </c>
       <c r="FA14" t="n">
-        <v>-0.06382773955025382</v>
+        <v>-0.1114243280041862</v>
       </c>
       <c r="FB14" t="n">
-        <v>0.2067202515900135</v>
+        <v>0.1997615777811891</v>
       </c>
       <c r="FC14" t="n">
-        <v>0.7911566030737516</v>
+        <v>0.7911566177735457</v>
       </c>
       <c r="FD14" t="n">
-        <v>-0.2029374153870675</v>
+        <v>-0.2357056790497154</v>
       </c>
       <c r="FE14" t="n">
-        <v>1.465351316171724</v>
+        <v>1.413394912875987</v>
       </c>
       <c r="FF14" t="n">
-        <v>0.6217256206515673</v>
+        <v>0.6217257374444524</v>
       </c>
       <c r="FG14" t="n">
-        <v>-0.01393919256893364</v>
+        <v>-0.05522609522213807</v>
       </c>
       <c r="FH14" t="n">
-        <v>0.112853651413241</v>
+        <v>0.1288445169055784</v>
       </c>
       <c r="FI14" t="n">
-        <v>0.6579569420601065</v>
+        <v>0.6579569166626882</v>
       </c>
       <c r="FJ14" t="n">
-        <v>0.08610279228840326</v>
+        <v>0.05944250232061824</v>
       </c>
       <c r="FK14" t="n">
         <v>469.5405405405405</v>
@@ -8065,7 +8065,7 @@
         <v>-6</v>
       </c>
       <c r="C15" t="n">
-        <v>-3.9975677</v>
+        <v>-3.32169</v>
       </c>
       <c r="D15" t="n">
         <v>9.702702702702704</v>
@@ -8080,25 +8080,25 @@
         <v>2.945945945945946</v>
       </c>
       <c r="H15" t="n">
-        <v>1.119466039578657</v>
+        <v>1.110598036364929</v>
       </c>
       <c r="I15" t="n">
-        <v>0.8437932753885115</v>
+        <v>0.8296572106915552</v>
       </c>
       <c r="J15" t="n">
-        <v>0.2756727399757585</v>
+        <v>0.2809408250692728</v>
       </c>
       <c r="K15" t="n">
-        <v>0.1153767301511632</v>
+        <v>0.1144627435625762</v>
       </c>
       <c r="L15" t="n">
-        <v>16.44118455127089</v>
+        <v>16.44118319115599</v>
       </c>
       <c r="M15" t="n">
         <v>17.33969140625</v>
       </c>
       <c r="N15" t="n">
-        <v>14.38038677250573</v>
+        <v>14.38038789241686</v>
       </c>
       <c r="O15" t="n">
         <v>190.6486486486486</v>
@@ -8107,13 +8107,13 @@
         <v>0.4341038915434156</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.883687312434375</v>
+        <v>0.8836871697213993</v>
       </c>
       <c r="R15" t="n">
         <v>3.022421313485102</v>
       </c>
       <c r="S15" t="n">
-        <v>52.54634502194732</v>
+        <v>52.54635125698324</v>
       </c>
       <c r="T15" t="n">
         <v>0.3229744728079911</v>
@@ -8125,13 +8125,13 @@
         <v>1.351351351351351</v>
       </c>
       <c r="W15" t="n">
-        <v>42.03121990047089</v>
+        <v>42.03121321168664</v>
       </c>
       <c r="X15" t="n">
         <v>10.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>4.00297332385437</v>
+        <v>4.002972686827299</v>
       </c>
       <c r="Z15" t="n">
         <v>0.7941409342834521</v>
@@ -8152,25 +8152,25 @@
         <v>3.72972972972973</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.122900263683216</v>
+        <v>1.094495056448756</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.8187592939750569</v>
+        <v>0.7818499135004507</v>
       </c>
       <c r="AH15" t="n">
-        <v>0.3041409702619186</v>
+        <v>0.3126451366555852</v>
       </c>
       <c r="AI15" t="n">
-        <v>0.08954162433229644</v>
+        <v>0.08727654917486782</v>
       </c>
       <c r="AJ15" t="n">
         <v>17.20171803441541</v>
       </c>
       <c r="AK15" t="n">
-        <v>18.7477533071319</v>
+        <v>18.74774581815567</v>
       </c>
       <c r="AL15" t="n">
-        <v>13.5494968580163</v>
+        <v>13.54949862715127</v>
       </c>
       <c r="AM15" t="n">
         <v>3.432432432432432</v>
@@ -8182,28 +8182,28 @@
         <v>4.54054054054054</v>
       </c>
       <c r="AP15" t="n">
-        <v>0.1535373749463139</v>
+        <v>0.1618471683279888</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0.03381477651141938</v>
+        <v>0.03564491442271641</v>
       </c>
       <c r="AR15" t="n">
         <v>14.32432432432432</v>
       </c>
       <c r="AS15" t="n">
-        <v>0.09769451285938958</v>
+        <v>0.09425201473405233</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.006820183430077895</v>
+        <v>0.006579857052497144</v>
       </c>
       <c r="AU15" t="n">
         <v>0.4054054054054054</v>
       </c>
       <c r="AV15" t="n">
-        <v>0.02385481386571317</v>
+        <v>0.02425560445801632</v>
       </c>
       <c r="AW15" t="n">
-        <v>0.05884186824162801</v>
+        <v>0.05983049074808756</v>
       </c>
       <c r="AX15" t="n">
         <v>22.32432432432432</v>
@@ -8290,7 +8290,7 @@
         <v>5.18918918918919</v>
       </c>
       <c r="BZ15" t="n">
-        <v>0.211457495502121</v>
+        <v>0.219154406187905</v>
       </c>
       <c r="CA15" t="n">
         <v>2.189189189189189</v>
@@ -8302,7 +8302,7 @@
         <v>15.8648648648649</v>
       </c>
       <c r="CD15" t="n">
-        <v>0.0575086517964263</v>
+        <v>0.0615183485646707</v>
       </c>
       <c r="CE15" t="n">
         <v>0.8918918918918919</v>
@@ -8314,13 +8314,13 @@
         <v>0.486486486486487</v>
       </c>
       <c r="CH15" t="n">
-        <v>0.0258529079524246</v>
+        <v>0.0200205388151713</v>
       </c>
       <c r="CI15" t="n">
         <v>24.1351351351351</v>
       </c>
       <c r="CJ15" t="n">
-        <v>0.00932191463338362</v>
+        <v>0.0119518444344804</v>
       </c>
       <c r="CK15" t="n">
         <v>0.1081081081081081</v>
@@ -8350,7 +8350,7 @@
         <v>0</v>
       </c>
       <c r="CT15" t="n">
-        <v>0.0407496218880018</v>
+        <v>0.0422328760226568</v>
       </c>
       <c r="CU15" t="n">
         <v>0.421875</v>
@@ -8359,7 +8359,7 @@
         <v>0.0520833333333333</v>
       </c>
       <c r="CW15" t="n">
-        <v>0.00362490632871144</v>
+        <v>0.00387764708146935</v>
       </c>
       <c r="CX15" t="n">
         <v>0.0562180579216354</v>
@@ -8368,13 +8368,13 @@
         <v>0.00170357751277683</v>
       </c>
       <c r="CZ15" t="n">
-        <v>0.0531420906384786</v>
+        <v>0.0411533315976461</v>
       </c>
       <c r="DA15" t="n">
         <v>0</v>
       </c>
       <c r="DB15" t="n">
-        <v>0.000386238365130622</v>
+        <v>0.000495205200532783</v>
       </c>
       <c r="DC15" t="n">
         <v>0.00447928331466965</v>
@@ -8392,7 +8392,7 @@
         <v>41.5945945945946</v>
       </c>
       <c r="DH15" t="n">
-        <v>0.00662761016508602</v>
+        <v>0.00675426232807043</v>
       </c>
       <c r="DI15" t="n">
         <v>0.07082521117608841</v>
@@ -8407,7 +8407,7 @@
         <v>45.6756756756757</v>
       </c>
       <c r="DM15" t="n">
-        <v>0.00665870813223032</v>
+        <v>0.00684489357400928</v>
       </c>
       <c r="DN15" t="n">
         <v>0.0816568047337278</v>
@@ -8458,10 +8458,10 @@
         <v>-0.1621621621621622</v>
       </c>
       <c r="ED15" t="n">
-        <v>-0.1080423448536847</v>
+        <v>-0.08977541569116954</v>
       </c>
       <c r="EE15" t="n">
-        <v>-0.003434224708660229</v>
+        <v>0.01610297689566741</v>
       </c>
       <c r="EF15" t="n">
         <v>2.324324324324324</v>
@@ -8521,40 +8521,40 @@
         <v>45.35135135135135</v>
       </c>
       <c r="EY15" t="n">
-        <v>1.399036720797822</v>
+        <v>1.362110661292398</v>
       </c>
       <c r="EZ15" t="n">
-        <v>0.6861433748256516</v>
+        <v>0.686143451345128</v>
       </c>
       <c r="FA15" t="n">
-        <v>0.05448930494084551</v>
+        <v>0.04493417263635107</v>
       </c>
       <c r="FB15" t="n">
-        <v>0.2759004889207112</v>
+        <v>0.2873256607484576</v>
       </c>
       <c r="FC15" t="n">
-        <v>0.6098970178816769</v>
+        <v>0.6098970899710784</v>
       </c>
       <c r="FD15" t="n">
-        <v>-0.2273933969538759</v>
+        <v>-0.2661896486187706</v>
       </c>
       <c r="FE15" t="n">
-        <v>1.542180663427791</v>
+        <v>1.466412100840259</v>
       </c>
       <c r="FF15" t="n">
-        <v>0.7891520535623705</v>
+        <v>0.7891519867085122</v>
       </c>
       <c r="FG15" t="n">
-        <v>-0.101920623130895</v>
+        <v>-0.2001950507228439</v>
       </c>
       <c r="FH15" t="n">
-        <v>0.2520462295191513</v>
+        <v>0.2463590881812411</v>
       </c>
       <c r="FI15" t="n">
-        <v>0.7378559225314373</v>
+        <v>0.7378559144767555</v>
       </c>
       <c r="FJ15" t="n">
-        <v>-0.1388428318831656</v>
+        <v>-0.1098666326142848</v>
       </c>
       <c r="FK15" t="n">
         <v>392.8648648648648</v>
@@ -8585,7 +8585,7 @@
         <v>-6</v>
       </c>
       <c r="C16" t="n">
-        <v>-10.526331</v>
+        <v>-8.788029</v>
       </c>
       <c r="D16" t="n">
         <v>10.40540540540541</v>
@@ -8600,25 +8600,25 @@
         <v>3.054054054054054</v>
       </c>
       <c r="H16" t="n">
-        <v>0.8157208445104392</v>
+        <v>0.8094392684665886</v>
       </c>
       <c r="I16" t="n">
-        <v>0.5429475045687443</v>
+        <v>0.5301429850829614</v>
       </c>
       <c r="J16" t="n">
-        <v>0.2727733394382773</v>
+        <v>0.2792962871089175</v>
       </c>
       <c r="K16" t="n">
-        <v>0.07839394111137886</v>
+        <v>0.07779027270032214</v>
       </c>
       <c r="L16" t="n">
-        <v>18.66892248376623</v>
+        <v>18.66892375202922</v>
       </c>
       <c r="M16" t="n">
-        <v>19.94529454848346</v>
+        <v>19.94529634363511</v>
       </c>
       <c r="N16" t="n">
-        <v>15.59660082791759</v>
+        <v>15.59659974764934</v>
       </c>
       <c r="O16" t="n">
         <v>192.3783783783784</v>
@@ -8627,7 +8627,7 @@
         <v>0.4320252563385735</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.8426038002603708</v>
+        <v>0.8426037293595849</v>
       </c>
       <c r="R16" t="n">
         <v>2.915501419910374</v>
@@ -8645,13 +8645,13 @@
         <v>0.7297297297297297</v>
       </c>
       <c r="W16" t="n">
-        <v>44.07329237388024</v>
+        <v>44.07328869047619</v>
       </c>
       <c r="X16" t="n">
         <v>11.08748824082785</v>
       </c>
       <c r="Y16" t="n">
-        <v>3.975047496473333</v>
+        <v>3.975047164260665</v>
       </c>
       <c r="Z16" t="n">
         <v>0.7986520193175184</v>
@@ -8672,25 +8672,25 @@
         <v>2.891891891891892</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.057864955550915</v>
+        <v>1.004602162821873</v>
       </c>
       <c r="AG16" t="n">
-        <v>0.7636963544866523</v>
+        <v>0.7161964702646475</v>
       </c>
       <c r="AH16" t="n">
-        <v>0.2937954382819904</v>
+        <v>0.2882783215593647</v>
       </c>
       <c r="AI16" t="n">
-        <v>0.1046550873129126</v>
+        <v>0.09938577662177264</v>
       </c>
       <c r="AJ16" t="n">
         <v>17.89249326328543</v>
       </c>
       <c r="AK16" t="n">
-        <v>18.33894244889568</v>
+        <v>18.33894428453947</v>
       </c>
       <c r="AL16" t="n">
-        <v>16.46494984849591</v>
+        <v>16.464952130184</v>
       </c>
       <c r="AM16" t="n">
         <v>3.081081081081081</v>
@@ -8702,37 +8702,37 @@
         <v>4.108108108108108</v>
       </c>
       <c r="AP16" t="n">
-        <v>0.1331810944436772</v>
+        <v>0.1443845540713015</v>
       </c>
       <c r="AQ16" t="n">
-        <v>0.03241908863971108</v>
+        <v>0.03514624269385087</v>
       </c>
       <c r="AR16" t="n">
         <v>15.94594594594595</v>
       </c>
       <c r="AS16" t="n">
-        <v>0.1033456706995698</v>
+        <v>0.1049239524086384</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.006480999316199351</v>
+        <v>0.006579976162668002</v>
       </c>
       <c r="AU16" t="n">
         <v>0.6486486486486487</v>
       </c>
       <c r="AV16" t="n">
-        <v>0.03102154902660766</v>
+        <v>0.02560357146619542</v>
       </c>
       <c r="AW16" t="n">
-        <v>0.04782488942146301</v>
+        <v>0.03947217017412186</v>
       </c>
       <c r="AX16" t="n">
         <v>23.7027027027027</v>
       </c>
       <c r="AY16" t="n">
-        <v>0.005225023808511528</v>
+        <v>0.004384207564431268</v>
       </c>
       <c r="AZ16" t="n">
-        <v>0.0002204399967954803</v>
+        <v>0.0001849665677126076</v>
       </c>
       <c r="BA16" t="n">
         <v>50.754</v>
@@ -8810,7 +8810,7 @@
         <v>3.27027027027027</v>
       </c>
       <c r="BZ16" t="n">
-        <v>0.08574430911323511</v>
+        <v>0.0971145724525323</v>
       </c>
       <c r="CA16" t="n">
         <v>1</v>
@@ -8822,7 +8822,7 @@
         <v>17.0540540540541</v>
       </c>
       <c r="CD16" t="n">
-        <v>0.143024518532125</v>
+        <v>0.137814961273122</v>
       </c>
       <c r="CE16" t="n">
         <v>0.8918918918918919</v>
@@ -8834,13 +8834,13 @@
         <v>0.783783783783784</v>
       </c>
       <c r="CH16" t="n">
-        <v>0.0347465433784433</v>
+        <v>0.0225073900828893</v>
       </c>
       <c r="CI16" t="n">
         <v>24.0540540540541</v>
       </c>
       <c r="CJ16" t="n">
-        <v>0.0302800721916798</v>
+        <v>0.0308414062334074</v>
       </c>
       <c r="CK16" t="n">
         <v>0.1891891891891892</v>
@@ -8870,7 +8870,7 @@
         <v>0</v>
       </c>
       <c r="CT16" t="n">
-        <v>0.0262193344841319</v>
+        <v>0.02969619262317</v>
       </c>
       <c r="CU16" t="n">
         <v>0.305785123966942</v>
@@ -8879,7 +8879,7 @@
         <v>0</v>
       </c>
       <c r="CW16" t="n">
-        <v>0.00838654165978288</v>
+        <v>0.008081068894375709</v>
       </c>
       <c r="CX16" t="n">
         <v>0.05229793977813</v>
@@ -8888,13 +8888,13 @@
         <v>0.0063391442155309</v>
       </c>
       <c r="CZ16" t="n">
-        <v>0.0443317931273888</v>
+        <v>0.0287163257598877</v>
       </c>
       <c r="DA16" t="n">
         <v>0.0344827586206897</v>
       </c>
       <c r="DB16" t="n">
-        <v>0.0012588345602657</v>
+        <v>0.00128217091721095</v>
       </c>
       <c r="DC16" t="n">
         <v>0.00786516853932584</v>
@@ -8912,7 +8912,7 @@
         <v>44.4054054054054</v>
       </c>
       <c r="DH16" t="n">
-        <v>0.00614279563007598</v>
+        <v>0.00628969049714936</v>
       </c>
       <c r="DI16" t="n">
         <v>0.068776628119294</v>
@@ -8927,7 +8927,7 @@
         <v>45.1621621621622</v>
       </c>
       <c r="DM16" t="n">
-        <v>0.00650534467166373</v>
+        <v>0.00638318190240774</v>
       </c>
       <c r="DN16" t="n">
         <v>0.064033512866547</v>
@@ -8978,10 +8978,10 @@
         <v>-0.05405405405405406</v>
       </c>
       <c r="ED16" t="n">
-        <v>-0.2844954753244245</v>
+        <v>-0.2375142687075847</v>
       </c>
       <c r="EE16" t="n">
-        <v>-0.2421441094295399</v>
+        <v>-0.1951628971744228</v>
       </c>
       <c r="EF16" t="n">
         <v>1.675675675675676</v>
@@ -9041,40 +9041,40 @@
         <v>37.43243243243244</v>
       </c>
       <c r="EY16" t="n">
-        <v>1.212809156324412</v>
+        <v>1.117069013618134</v>
       </c>
       <c r="EZ16" t="n">
-        <v>0.6705399230122566</v>
+        <v>0.6705399987262648</v>
       </c>
       <c r="FA16" t="n">
-        <v>-0.06304383549738575</v>
+        <v>-0.1633627240520877</v>
       </c>
       <c r="FB16" t="n">
-        <v>0.1752613000571728</v>
+        <v>0.1923919642293775</v>
       </c>
       <c r="FC16" t="n">
-        <v>0.6180808362928597</v>
+        <v>0.6180808270299757</v>
       </c>
       <c r="FD16" t="n">
-        <v>-0.188029007130378</v>
+        <v>-0.200581009222849</v>
       </c>
       <c r="FE16" t="n">
-        <v>1.310178480941702</v>
+        <v>1.16704808296384</v>
       </c>
       <c r="FF16" t="n">
-        <v>0.6937458968243083</v>
+        <v>0.6937458660151508</v>
       </c>
       <c r="FG16" t="n">
-        <v>-0.03776752586300309</v>
+        <v>-0.1401993733000111</v>
       </c>
       <c r="FH16" t="n">
-        <v>0.1104277477071092</v>
+        <v>0.1048019598867442</v>
       </c>
       <c r="FI16" t="n">
-        <v>0.5939542882748552</v>
+        <v>0.5939543297564661</v>
       </c>
       <c r="FJ16" t="n">
-        <v>-0.05169951600126094</v>
+        <v>-0.08774693677615789</v>
       </c>
       <c r="FK16" t="n">
         <v>382.1081081081081</v>
@@ -9105,7 +9105,7 @@
         <v>-13</v>
       </c>
       <c r="C17" t="n">
-        <v>-16.158363</v>
+        <v>-17.604275</v>
       </c>
       <c r="D17" t="n">
         <v>9.210526315789474</v>
@@ -9120,22 +9120,22 @@
         <v>2.052631578947369</v>
       </c>
       <c r="H17" t="n">
-        <v>0.8498883670882175</v>
+        <v>0.7880185740558725</v>
       </c>
       <c r="I17" t="n">
-        <v>0.6854960220424753</v>
+        <v>0.6267441154310578</v>
       </c>
       <c r="J17" t="n">
-        <v>0.1643923555353755</v>
+        <v>0.1612744642617671</v>
       </c>
       <c r="K17" t="n">
-        <v>0.09227358136858259</v>
+        <v>0.08555630275181361</v>
       </c>
       <c r="L17" t="n">
         <v>17.62326311383929</v>
       </c>
       <c r="M17" t="n">
-        <v>18.5689104865579</v>
+        <v>18.5689068962546</v>
       </c>
       <c r="N17" t="n">
         <v>14.32561942858574</v>
@@ -9144,16 +9144,16 @@
         <v>198.4473684210526</v>
       </c>
       <c r="P17" t="n">
-        <v>0.4671157662654838</v>
+        <v>0.4671157662654837</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.8770202595569607</v>
+        <v>0.8770202595569606</v>
       </c>
       <c r="R17" t="n">
         <v>2.925322025883523</v>
       </c>
       <c r="S17" t="n">
-        <v>44.38597996556217</v>
+        <v>44.38597705696203</v>
       </c>
       <c r="T17" t="n">
         <v>0.4523809523809524</v>
@@ -9192,25 +9192,25 @@
         <v>2.710526315789474</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.195108415068765</v>
+        <v>1.168815258694323</v>
       </c>
       <c r="AG17" t="n">
-        <v>0.9828455757937933</v>
+        <v>0.9483105763792992</v>
       </c>
       <c r="AH17" t="n">
-        <v>0.2122628478774507</v>
+        <v>0.2205046843247194</v>
       </c>
       <c r="AI17" t="n">
-        <v>0.1107661456596561</v>
+        <v>0.1083291960925591</v>
       </c>
       <c r="AJ17" t="n">
-        <v>17.25292016006097</v>
+        <v>17.25291658727134</v>
       </c>
       <c r="AK17" t="n">
-        <v>17.99795144543974</v>
+        <v>17.99795303593241</v>
       </c>
       <c r="AL17" t="n">
-        <v>15.03227989418993</v>
+        <v>15.0322775238926</v>
       </c>
       <c r="AM17" t="n">
         <v>2.526315789473684</v>
@@ -9222,37 +9222,37 @@
         <v>3.473684210526316</v>
       </c>
       <c r="AP17" t="n">
-        <v>0.09565957020478029</v>
+        <v>0.09470132302100721</v>
       </c>
       <c r="AQ17" t="n">
-        <v>0.02753836097139301</v>
+        <v>0.02726250345056707</v>
       </c>
       <c r="AR17" t="n">
         <v>17.52631578947368</v>
       </c>
       <c r="AS17" t="n">
-        <v>0.05216710499830936</v>
+        <v>0.05214843183363739</v>
       </c>
       <c r="AT17" t="n">
-        <v>0.002976501310193861</v>
+        <v>0.002975436302276703</v>
       </c>
       <c r="AU17" t="n">
         <v>0.2105263157894737</v>
       </c>
       <c r="AV17" t="n">
-        <v>0.01401845483403457</v>
+        <v>0.01150103707454707</v>
       </c>
       <c r="AW17" t="n">
-        <v>0.0665876567363739</v>
+        <v>0.05462992191314697</v>
       </c>
       <c r="AX17" t="n">
         <v>22</v>
       </c>
       <c r="AY17" t="n">
-        <v>0.002547223611097587</v>
+        <v>0.002923674391288506</v>
       </c>
       <c r="AZ17" t="n">
-        <v>0.0001157828958696155</v>
+        <v>0.0001328942860570251</v>
       </c>
       <c r="BA17" t="n">
         <v>51.708176</v>
@@ -9330,7 +9330,7 @@
         <v>4.02631578947368</v>
       </c>
       <c r="BZ17" t="n">
-        <v>0.100352471449265</v>
+        <v>0.106992944143713</v>
       </c>
       <c r="CA17" t="n">
         <v>1.394736842105263</v>
@@ -9342,7 +9342,7 @@
         <v>16.0789473684211</v>
       </c>
       <c r="CD17" t="n">
-        <v>0.0927536057945537</v>
+        <v>0.09649990562741689</v>
       </c>
       <c r="CE17" t="n">
         <v>0.868421052631579</v>
@@ -9354,13 +9354,13 @@
         <v>0.368421052631579</v>
       </c>
       <c r="CH17" t="n">
-        <v>0.0154603613344462</v>
+        <v>0.0131592805570874</v>
       </c>
       <c r="CI17" t="n">
         <v>24.8157894736842</v>
       </c>
       <c r="CJ17" t="n">
-        <v>0.0036964084168798</v>
+        <v>0.00385255248923051</v>
       </c>
       <c r="CK17" t="n">
         <v>0.07894736842105263</v>
@@ -9390,7 +9390,7 @@
         <v>0</v>
       </c>
       <c r="CT17" t="n">
-        <v>0.0249241442462198</v>
+        <v>0.026573411779466</v>
       </c>
       <c r="CU17" t="n">
         <v>0.34640522875817</v>
@@ -9399,7 +9399,7 @@
         <v>0.0130718954248366</v>
       </c>
       <c r="CW17" t="n">
-        <v>0.00576863624460373</v>
+        <v>0.00600163089858334</v>
       </c>
       <c r="CX17" t="n">
         <v>0.0540098199672668</v>
@@ -9408,13 +9408,13 @@
         <v>0.00654664484451719</v>
       </c>
       <c r="CZ17" t="n">
-        <v>0.0419638412339347</v>
+        <v>0.0357180493218558</v>
       </c>
       <c r="DA17" t="n">
         <v>0.0714285714285714</v>
       </c>
       <c r="DB17" t="n">
-        <v>0.000148953887715952</v>
+        <v>0.000155246017593594</v>
       </c>
       <c r="DC17" t="n">
         <v>0.0031813361611877</v>
@@ -9432,7 +9432,7 @@
         <v>43.2105263157895</v>
       </c>
       <c r="DH17" t="n">
-        <v>0.00380445165552843</v>
+        <v>0.00373229533252414</v>
       </c>
       <c r="DI17" t="n">
         <v>0.0475030450669915</v>
@@ -9447,7 +9447,7 @@
         <v>45.2894736842105</v>
       </c>
       <c r="DM17" t="n">
-        <v>0.00468680388978718</v>
+        <v>0.0048687839009331</v>
       </c>
       <c r="DN17" t="n">
         <v>0.0598489250435793</v>
@@ -9498,10 +9498,10 @@
         <v>-0.3157894736842105</v>
       </c>
       <c r="ED17" t="n">
-        <v>-0.4252200487412904</v>
+        <v>-0.4632703865829267</v>
       </c>
       <c r="EE17" t="n">
-        <v>-0.3452200464120037</v>
+        <v>-0.3807966893440799</v>
       </c>
       <c r="EF17" t="n">
         <v>2</v>
@@ -9561,40 +9561,40 @@
         <v>41.10526315789474</v>
       </c>
       <c r="EY17" t="n">
-        <v>1.486840389865009</v>
+        <v>1.260191973298788</v>
       </c>
       <c r="EZ17" t="n">
-        <v>0.6772071205471691</v>
+        <v>0.6772070527076721</v>
       </c>
       <c r="FA17" t="n">
-        <v>0.02593760878631943</v>
+        <v>-0.1656015738354702</v>
       </c>
       <c r="FB17" t="n">
-        <v>0.1733923104444617</v>
+        <v>0.2019984066045206</v>
       </c>
       <c r="FC17" t="n">
-        <v>0.5859914202439157</v>
+        <v>0.5859914311992103</v>
       </c>
       <c r="FD17" t="n">
-        <v>0.02496890427947447</v>
+        <v>-0.0404681373840651</v>
       </c>
       <c r="FE17" t="n">
-        <v>1.783595362972272</v>
+        <v>1.495348741741557</v>
       </c>
       <c r="FF17" t="n">
-        <v>0.8306087643692368</v>
+        <v>0.8306088914212427</v>
       </c>
       <c r="FG17" t="n">
-        <v>0.2003096273463023</v>
+        <v>-0.04702710654390486</v>
       </c>
       <c r="FH17" t="n">
-        <v>0.1656312498656151</v>
+        <v>0.1620946753230926</v>
       </c>
       <c r="FI17" t="n">
-        <v>0.6572357463209253</v>
+        <v>0.65723564828697</v>
       </c>
       <c r="FJ17" t="n">
-        <v>-0.07197700440883636</v>
+        <v>-0.1103603318585335</v>
       </c>
       <c r="FK17" t="n">
         <v>431.5526315789473</v>
@@ -9625,7 +9625,7 @@
         <v>-15</v>
       </c>
       <c r="C18" t="n">
-        <v>-4.4887805</v>
+        <v>-3.1714709</v>
       </c>
       <c r="D18" t="n">
         <v>9.947368421052632</v>
@@ -9640,16 +9640,16 @@
         <v>3.078947368421053</v>
       </c>
       <c r="H18" t="n">
-        <v>0.8655523034302812</v>
+        <v>0.8606267230291116</v>
       </c>
       <c r="I18" t="n">
-        <v>0.6471631154417992</v>
+        <v>0.6420797846819225</v>
       </c>
       <c r="J18" t="n">
-        <v>0.2183892031592366</v>
+        <v>0.2185469597676083</v>
       </c>
       <c r="K18" t="n">
-        <v>0.08701319416994771</v>
+        <v>0.08651802022621115</v>
       </c>
       <c r="L18" t="n">
         <v>18.36131391575728</v>
@@ -9658,7 +9658,7 @@
         <v>19.23049494133142</v>
       </c>
       <c r="N18" t="n">
-        <v>16.42237475794605</v>
+        <v>16.42237267127404</v>
       </c>
       <c r="O18" t="n">
         <v>189.0526315789474</v>
@@ -9667,13 +9667,13 @@
         <v>0.4753664051820459</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.8704977342193732</v>
+        <v>0.8704977342193729</v>
       </c>
       <c r="R18" t="n">
-        <v>2.691544644381112</v>
+        <v>2.691544644381111</v>
       </c>
       <c r="S18" t="n">
-        <v>46.28269781528792</v>
+        <v>46.28271048763179</v>
       </c>
       <c r="T18" t="n">
         <v>0.445910290237467</v>
@@ -9685,13 +9685,13 @@
         <v>1.131578947368421</v>
       </c>
       <c r="W18" t="n">
-        <v>44.66940539513678</v>
+        <v>44.66940878745115</v>
       </c>
       <c r="X18" t="n">
         <v>9.428927680798004</v>
       </c>
       <c r="Y18" t="n">
-        <v>4.737485205884647</v>
+        <v>4.737485565661971</v>
       </c>
       <c r="Z18" t="n">
         <v>0.7945048966267683</v>
@@ -9712,25 +9712,25 @@
         <v>3.263157894736842</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.024296527630404</v>
+        <v>0.9853233255838093</v>
       </c>
       <c r="AG18" t="n">
-        <v>0.6946337968111038</v>
+        <v>0.6521156132221222</v>
       </c>
       <c r="AH18" t="n">
-        <v>0.3296626956986362</v>
+        <v>0.3332076778292264</v>
       </c>
       <c r="AI18" t="n">
-        <v>0.09424519942978681</v>
+        <v>0.09065929163454808</v>
       </c>
       <c r="AJ18" t="n">
-        <v>18.33574833535109</v>
+        <v>18.33574951763014</v>
       </c>
       <c r="AK18" t="n">
-        <v>19.72539670739619</v>
+        <v>19.72540008650519</v>
       </c>
       <c r="AL18" t="n">
-        <v>15.09697108114919</v>
+        <v>15.0969720655872</v>
       </c>
       <c r="AM18" t="n">
         <v>2.157894736842105</v>
@@ -9742,37 +9742,37 @@
         <v>4.368421052631579</v>
       </c>
       <c r="AP18" t="n">
-        <v>0.1246485691640134</v>
+        <v>0.1277524525985906</v>
       </c>
       <c r="AQ18" t="n">
-        <v>0.02853401023221303</v>
+        <v>0.02924454068563071</v>
       </c>
       <c r="AR18" t="n">
         <v>14.52631578947368</v>
       </c>
       <c r="AS18" t="n">
-        <v>0.03766602848803526</v>
+        <v>0.03664247032352969</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.002592951275300289</v>
+        <v>0.002522489298944888</v>
       </c>
       <c r="AU18" t="n">
         <v>0.7368421052631579</v>
       </c>
       <c r="AV18" t="n">
-        <v>0.03575717476441672</v>
+        <v>0.03201181331257287</v>
       </c>
       <c r="AW18" t="n">
-        <v>0.04852759838104248</v>
+        <v>0.0434445994240897</v>
       </c>
       <c r="AX18" t="n">
         <v>22.34210526315789</v>
       </c>
       <c r="AY18" t="n">
-        <v>0.02031743070600849</v>
+        <v>0.02214022513822113</v>
       </c>
       <c r="AZ18" t="n">
-        <v>0.0009093785875677642</v>
+        <v>0.0009909641475924615</v>
       </c>
       <c r="BA18" t="n">
         <v>51.423134</v>
@@ -9850,7 +9850,7 @@
         <v>4.63157894736842</v>
       </c>
       <c r="BZ18" t="n">
-        <v>0.186106318191282</v>
+        <v>0.190978456460136</v>
       </c>
       <c r="CA18" t="n">
         <v>1.631578947368421</v>
@@ -9862,7 +9862,7 @@
         <v>16.6315789473684</v>
       </c>
       <c r="CD18" t="n">
-        <v>0.116801685653627</v>
+        <v>0.121386682369599</v>
       </c>
       <c r="CE18" t="n">
         <v>1</v>
@@ -9874,7 +9874,7 @@
         <v>0.6052631578947369</v>
       </c>
       <c r="CH18" t="n">
-        <v>0.0267546923929139</v>
+        <v>0.0208425365241342</v>
       </c>
       <c r="CI18" t="n">
         <v>22.1052631578947</v>
@@ -9910,7 +9910,7 @@
         <v>0.001177856301531213</v>
       </c>
       <c r="CT18" t="n">
-        <v>0.0401820486242121</v>
+        <v>0.0412339866161346</v>
       </c>
       <c r="CU18" t="n">
         <v>0.352272727272727</v>
@@ -9919,7 +9919,7 @@
         <v>0.0397727272727273</v>
       </c>
       <c r="CW18" t="n">
-        <v>0.00702288558211508</v>
+        <v>0.00729856536358218</v>
       </c>
       <c r="CX18" t="n">
         <v>0.060126582278481</v>
@@ -9928,7 +9928,7 @@
         <v>0.00791139240506329</v>
       </c>
       <c r="CZ18" t="n">
-        <v>0.04420340579489</v>
+        <v>0.0344354950863382</v>
       </c>
       <c r="DA18" t="n">
         <v>0.0434782608695652</v>
@@ -9952,7 +9952,7 @@
         <v>41.9736842105263</v>
       </c>
       <c r="DH18" t="n">
-        <v>0.00520300252310535</v>
+        <v>0.0052067616142823</v>
       </c>
       <c r="DI18" t="n">
         <v>0.07335423197492159</v>
@@ -9967,7 +9967,7 @@
         <v>43.9736842105263</v>
       </c>
       <c r="DM18" t="n">
-        <v>0.00749681782108948</v>
+        <v>0.00757743440510483</v>
       </c>
       <c r="DN18" t="n">
         <v>0.0742070616397367</v>
@@ -10018,10 +10018,10 @@
         <v>-0.3947368421052632</v>
       </c>
       <c r="ED18" t="n">
-        <v>-0.1181258002394124</v>
+        <v>-0.08345975609202134</v>
       </c>
       <c r="EE18" t="n">
-        <v>-0.1587442222394441</v>
+        <v>-0.1246966033389694</v>
       </c>
       <c r="EF18" t="n">
         <v>1.789473684210526</v>
@@ -10081,40 +10081,40 @@
         <v>40.23684210526316</v>
       </c>
       <c r="EY18" t="n">
-        <v>1.333162420674374</v>
+        <v>1.287495540553018</v>
       </c>
       <c r="EZ18" t="n">
-        <v>0.6398497218462197</v>
+        <v>0.6398496834169093</v>
       </c>
       <c r="FA18" t="n">
-        <v>-0.0171260431801018</v>
+        <v>-0.1166979458771254</v>
       </c>
       <c r="FB18" t="n">
-        <v>0.2073474661692193</v>
+        <v>0.2290212315948386</v>
       </c>
       <c r="FC18" t="n">
-        <v>0.5742822740423051</v>
+        <v>0.5742822182609847</v>
       </c>
       <c r="FD18" t="n">
-        <v>-0.07119115564580027</v>
+        <v>-0.03895980546152905</v>
       </c>
       <c r="FE18" t="n">
-        <v>1.693177742393393</v>
+        <v>1.584803865536263</v>
       </c>
       <c r="FF18" t="n">
-        <v>0.7171662363566851</v>
+        <v>0.7171661720464104</v>
       </c>
       <c r="FG18" t="n">
-        <v>0.1802295014066131</v>
+        <v>0.08717053569853306</v>
       </c>
       <c r="FH18" t="n">
-        <v>0.09350278591246981</v>
+        <v>0.117848506981605</v>
       </c>
       <c r="FI18" t="n">
-        <v>0.6358330641922197</v>
+        <v>0.6358330469382437</v>
       </c>
       <c r="FJ18" t="n">
-        <v>0.06660344686947371</v>
+        <v>0.02694281891576554</v>
       </c>
       <c r="FK18" t="n">
         <v>433.7631578947368</v>
@@ -10145,7 +10145,7 @@
         <v>-21</v>
       </c>
       <c r="C19" t="n">
-        <v>-14.414744</v>
+        <v>-14.918265</v>
       </c>
       <c r="D19" t="n">
         <v>10.36111111111111</v>
@@ -10160,22 +10160,22 @@
         <v>2.416666666666667</v>
       </c>
       <c r="H19" t="n">
-        <v>0.9507447754343351</v>
+        <v>0.9262030315068033</v>
       </c>
       <c r="I19" t="n">
-        <v>0.7529504294765906</v>
+        <v>0.724009892437607</v>
       </c>
       <c r="J19" t="n">
-        <v>0.1974108222121787</v>
+        <v>0.2020622339849878</v>
       </c>
       <c r="K19" t="n">
-        <v>0.09176088593920179</v>
+        <v>0.08939224529522034</v>
       </c>
       <c r="L19" t="n">
-        <v>18.94270746062332</v>
+        <v>18.94270876968834</v>
       </c>
       <c r="M19" t="n">
-        <v>19.6058747944079</v>
+        <v>19.60587650767544</v>
       </c>
       <c r="N19" t="n">
         <v>16.39162401221265</v>
@@ -10187,13 +10187,13 @@
         <v>0.4530858949663042</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.8566093334957829</v>
+        <v>0.8566093334957833</v>
       </c>
       <c r="R19" t="n">
         <v>2.952792717145106</v>
       </c>
       <c r="S19" t="n">
-        <v>47.43829870060137</v>
+        <v>47.43829534471649</v>
       </c>
       <c r="T19" t="n">
         <v>0.4287564766839378</v>
@@ -10205,13 +10205,13 @@
         <v>1.444444444444444</v>
       </c>
       <c r="W19" t="n">
-        <v>44.16601387331838</v>
+        <v>44.16601737668162</v>
       </c>
       <c r="X19" t="n">
         <v>9.069686411149826</v>
       </c>
       <c r="Y19" t="n">
-        <v>4.869629651034336</v>
+        <v>4.869630037306041</v>
       </c>
       <c r="Z19" t="n">
         <v>0.7840889551212242</v>
@@ -10232,25 +10232,25 @@
         <v>3.694444444444444</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.244293211648862</v>
+        <v>1.231779949946536</v>
       </c>
       <c r="AG19" t="n">
-        <v>0.9247844703495502</v>
+        <v>0.9051171398799246</v>
       </c>
       <c r="AH19" t="n">
-        <v>0.3195087384536034</v>
+        <v>0.3266627948938144</v>
       </c>
       <c r="AI19" t="n">
-        <v>0.1029759812629086</v>
+        <v>0.1019404005730289</v>
       </c>
       <c r="AJ19" t="n">
-        <v>16.80009877873563</v>
+        <v>16.80010214619253</v>
       </c>
       <c r="AK19" t="n">
-        <v>17.9002709799255</v>
+        <v>17.90026936310016</v>
       </c>
       <c r="AL19" t="n">
-        <v>14.30197074718045</v>
+        <v>14.30197350064615</v>
       </c>
       <c r="AM19" t="n">
         <v>3.111111111111111</v>
@@ -10262,28 +10262,28 @@
         <v>3.166666666666667</v>
       </c>
       <c r="AP19" t="n">
-        <v>0.09623091197055247</v>
+        <v>0.09926081949460139</v>
       </c>
       <c r="AQ19" t="n">
-        <v>0.03038871079160456</v>
+        <v>0.03134552010318689</v>
       </c>
       <c r="AR19" t="n">
         <v>17.08333333333333</v>
       </c>
       <c r="AS19" t="n">
-        <v>0.06992420190686567</v>
+        <v>0.07746109691086328</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.00409312403298975</v>
+        <v>0.004534308115641276</v>
       </c>
       <c r="AU19" t="n">
         <v>0.6944444444444444</v>
       </c>
       <c r="AV19" t="n">
-        <v>0.03125571092176768</v>
+        <v>0.02534031842110886</v>
       </c>
       <c r="AW19" t="n">
-        <v>0.045008225440979</v>
+        <v>0.03649006128311157</v>
       </c>
       <c r="AX19" t="n">
         <v>24.61111111111111</v>
@@ -10370,7 +10370,7 @@
         <v>5.41666666666667</v>
       </c>
       <c r="BZ19" t="n">
-        <v>0.208039018222027</v>
+        <v>0.213168613509172</v>
       </c>
       <c r="CA19" t="n">
         <v>1.944444444444444</v>
@@ -10382,7 +10382,7 @@
         <v>16.4444444444444</v>
       </c>
       <c r="CD19" t="n">
-        <v>0.0709793682779289</v>
+        <v>0.07924807007010611</v>
       </c>
       <c r="CE19" t="n">
         <v>0.9444444444444444</v>
@@ -10394,13 +10394,13 @@
         <v>0.638888888888889</v>
       </c>
       <c r="CH19" t="n">
-        <v>0.0353361329374214</v>
+        <v>0.0289183536596182</v>
       </c>
       <c r="CI19" t="n">
         <v>23.5833333333333</v>
       </c>
       <c r="CJ19" t="n">
-        <v>0.00515421479940414</v>
+        <v>0.00532775910364257</v>
       </c>
       <c r="CK19" t="n">
         <v>0.05555555555555555</v>
@@ -10430,7 +10430,7 @@
         <v>0</v>
       </c>
       <c r="CT19" t="n">
-        <v>0.0384072034786909</v>
+        <v>0.0393542045202011</v>
       </c>
       <c r="CU19" t="n">
         <v>0.358974358974359</v>
@@ -10439,7 +10439,7 @@
         <v>0.0564102564102564</v>
       </c>
       <c r="CW19" t="n">
-        <v>0.00431631344395715</v>
+        <v>0.0048191394354846</v>
       </c>
       <c r="CX19" t="n">
         <v>0.0574324324324324</v>
@@ -10448,13 +10448,13 @@
         <v>0.00337837837837838</v>
       </c>
       <c r="CZ19" t="n">
-        <v>0.0553087307059247</v>
+        <v>0.0452635132748148</v>
       </c>
       <c r="DA19" t="n">
         <v>0.0434782608695652</v>
       </c>
       <c r="DB19" t="n">
-        <v>0.00021855327771325</v>
+        <v>0.000225912046797565</v>
       </c>
       <c r="DC19" t="n">
         <v>0.00235571260306243</v>
@@ -10472,7 +10472,7 @@
         <v>45.5555555555556</v>
       </c>
       <c r="DH19" t="n">
-        <v>0.00433340799517748</v>
+        <v>0.00443551278695828</v>
       </c>
       <c r="DI19" t="n">
         <v>0.0530487804878049</v>
@@ -10487,7 +10487,7 @@
         <v>46.0833333333333</v>
       </c>
       <c r="DM19" t="n">
-        <v>0.0069332824118386</v>
+        <v>0.00708852323011291</v>
       </c>
       <c r="DN19" t="n">
         <v>0.080168776371308</v>
@@ -10538,10 +10538,10 @@
         <v>-0.4722222222222222</v>
       </c>
       <c r="ED19" t="n">
-        <v>-0.4004095577531391</v>
+        <v>-0.4143963538938099</v>
       </c>
       <c r="EE19" t="n">
-        <v>-0.2935484349727631</v>
+        <v>-0.3055769105752309</v>
       </c>
       <c r="EF19" t="n">
         <v>2.111111111111111</v>
@@ -10601,40 +10601,40 @@
         <v>43.66666666666666</v>
       </c>
       <c r="EY19" t="n">
-        <v>1.116986485405101</v>
+        <v>0.9435999819801913</v>
       </c>
       <c r="EZ19" t="n">
-        <v>0.6224067889981799</v>
+        <v>0.6224068428079287</v>
       </c>
       <c r="FA19" t="n">
-        <v>-0.09716508229677048</v>
+        <v>-0.2670022642446889</v>
       </c>
       <c r="FB19" t="n">
-        <v>0.1585638751987264</v>
+        <v>0.1642427110992786</v>
       </c>
       <c r="FC19" t="n">
-        <v>0.6212989185005426</v>
+        <v>0.6212988820754819</v>
       </c>
       <c r="FD19" t="n">
-        <v>-0.1881180837646955</v>
+        <v>-0.1973461543416811</v>
       </c>
       <c r="FE19" t="n">
-        <v>1.866564316416366</v>
+        <v>1.589019988146093</v>
       </c>
       <c r="FF19" t="n">
-        <v>0.9298578307239546</v>
+        <v>0.929858107223279</v>
       </c>
       <c r="FG19" t="n">
-        <v>0.0798957416942964</v>
+        <v>-0.1446487191650603</v>
       </c>
       <c r="FH19" t="n">
-        <v>0.1862438114735091</v>
+        <v>0.1674123856808162</v>
       </c>
       <c r="FI19" t="n">
-        <v>0.744841592075924</v>
+        <v>0.7448416781715221</v>
       </c>
       <c r="FJ19" t="n">
-        <v>-0.07460967684164643</v>
+        <v>-0.1087781615141365</v>
       </c>
       <c r="FK19" t="n">
         <v>399.6666666666667</v>
@@ -10665,7 +10665,7 @@
         <v>-24</v>
       </c>
       <c r="C20" t="n">
-        <v>-25.776934</v>
+        <v>-25.686272</v>
       </c>
       <c r="D20" t="n">
         <v>8.54054054054054</v>
@@ -10680,40 +10680,40 @@
         <v>2.972972972972973</v>
       </c>
       <c r="H20" t="n">
-        <v>0.7834998566556621</v>
+        <v>0.7691290793386666</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4947656363852926</v>
+        <v>0.4789952757592137</v>
       </c>
       <c r="J20" t="n">
-        <v>0.2887342077352711</v>
+        <v>0.2901337962798975</v>
       </c>
       <c r="K20" t="n">
-        <v>0.09173891212366804</v>
+        <v>0.09005626243881032</v>
       </c>
       <c r="L20" t="n">
-        <v>17.56473125988924</v>
+        <v>17.56472971469541</v>
       </c>
       <c r="M20" t="n">
-        <v>18.96151585254854</v>
+        <v>18.96151466739988</v>
       </c>
       <c r="N20" t="n">
-        <v>14.94893687855114</v>
+        <v>14.94893576882102</v>
       </c>
       <c r="O20" t="n">
         <v>197.5675675675676</v>
       </c>
       <c r="P20" t="n">
-        <v>0.4303555848604968</v>
+        <v>0.4303555848604967</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.8743492502633438</v>
+        <v>0.8743491594174647</v>
       </c>
       <c r="R20" t="n">
         <v>3.073878121590269</v>
       </c>
       <c r="S20" t="n">
-        <v>50.3781414618086</v>
+        <v>50.37814832089552</v>
       </c>
       <c r="T20" t="n">
         <v>0.4473684210526316</v>
@@ -10725,13 +10725,13 @@
         <v>1.351351351351351</v>
       </c>
       <c r="W20" t="n">
-        <v>42.6317447179539</v>
+        <v>42.63174155883542</v>
       </c>
       <c r="X20" t="n">
         <v>9.650592216582064</v>
       </c>
       <c r="Y20" t="n">
-        <v>4.417526278304682</v>
+        <v>4.417525950954981</v>
       </c>
       <c r="Z20" t="n">
         <v>0.7911090117041936</v>
@@ -10752,22 +10752,22 @@
         <v>3.324324324324324</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.478903403556025</v>
+        <v>1.463352695912928</v>
       </c>
       <c r="AG20" t="n">
-        <v>1.204603978709595</v>
+        <v>1.193521465602759</v>
       </c>
       <c r="AH20" t="n">
-        <v>0.2742994194472763</v>
+        <v>0.2698312003442363</v>
       </c>
       <c r="AI20" t="n">
-        <v>0.1221415826252529</v>
+        <v>0.1208572472844805</v>
       </c>
       <c r="AJ20" t="n">
-        <v>17.31575230189732</v>
+        <v>17.31575666155134</v>
       </c>
       <c r="AK20" t="n">
-        <v>17.64020432692308</v>
+        <v>17.64020582932692</v>
       </c>
       <c r="AL20" t="n">
         <v>16.45846731294461</v>
@@ -10782,28 +10782,28 @@
         <v>3.081081081081081</v>
       </c>
       <c r="AP20" t="n">
-        <v>0.1314530898942738</v>
+        <v>0.1371581410938824</v>
       </c>
       <c r="AQ20" t="n">
-        <v>0.04266459481757984</v>
+        <v>0.04451624134130645</v>
       </c>
       <c r="AR20" t="n">
         <v>17.75675675675676</v>
       </c>
       <c r="AS20" t="n">
-        <v>0.09209643573676413</v>
+        <v>0.09488941281027086</v>
       </c>
       <c r="AT20" t="n">
-        <v>0.00518655740688562</v>
+        <v>0.005343847986044223</v>
       </c>
       <c r="AU20" t="n">
         <v>0.5675675675675675</v>
       </c>
       <c r="AV20" t="n">
-        <v>0.04579440242535359</v>
+        <v>0.03869596386731074</v>
       </c>
       <c r="AW20" t="n">
-        <v>0.08068537712097168</v>
+        <v>0.0681786026273455</v>
       </c>
       <c r="AX20" t="n">
         <v>21.94594594594595</v>
@@ -10890,7 +10890,7 @@
         <v>4.37837837837838</v>
       </c>
       <c r="BZ20" t="n">
-        <v>0.151549043486247</v>
+        <v>0.151266914666504</v>
       </c>
       <c r="CA20" t="n">
         <v>1.459459459459459</v>
@@ -10902,7 +10902,7 @@
         <v>17.1621621621622</v>
       </c>
       <c r="CD20" t="n">
-        <v>0.0615771050766312</v>
+        <v>0.06454614664402759</v>
       </c>
       <c r="CE20" t="n">
         <v>0.8648648648648649</v>
@@ -10914,13 +10914,13 @@
         <v>0.72972972972973</v>
       </c>
       <c r="CH20" t="n">
-        <v>0.0379438773301002</v>
+        <v>0.0304317387273988</v>
       </c>
       <c r="CI20" t="n">
         <v>23.6216216216216</v>
       </c>
       <c r="CJ20" t="n">
-        <v>0.0232293965244615</v>
+        <v>0.0235864027730516</v>
       </c>
       <c r="CK20" t="n">
         <v>0.1891891891891892</v>
@@ -10950,7 +10950,7 @@
         <v>0.001231527093596059</v>
       </c>
       <c r="CT20" t="n">
-        <v>0.0346130530039469</v>
+        <v>0.0345486122884868</v>
       </c>
       <c r="CU20" t="n">
         <v>0.333333333333333</v>
@@ -10959,7 +10959,7 @@
         <v>0.0493827160493827</v>
       </c>
       <c r="CW20" t="n">
-        <v>0.00358795706681379</v>
+        <v>0.00376095621604619</v>
       </c>
       <c r="CX20" t="n">
         <v>0.0503937007874016</v>
@@ -10968,13 +10968,13 @@
         <v>0.0031496062992126</v>
       </c>
       <c r="CZ20" t="n">
-        <v>0.0519971670927825</v>
+        <v>0.0417027517601296</v>
       </c>
       <c r="DA20" t="n">
         <v>0.148148148148148</v>
       </c>
       <c r="DB20" t="n">
-        <v>0.000983395551925939</v>
+        <v>0.0009985090120433399</v>
       </c>
       <c r="DC20" t="n">
         <v>0.0080091533180778</v>
@@ -10992,7 +10992,7 @@
         <v>43.3513513513514</v>
       </c>
       <c r="DH20" t="n">
-        <v>0.00666032764977053</v>
+        <v>0.0066926122603571</v>
       </c>
       <c r="DI20" t="n">
         <v>0.0685785536159601</v>
@@ -11007,7 +11007,7 @@
         <v>45.8918918918919</v>
       </c>
       <c r="DM20" t="n">
-        <v>0.00597707795591321</v>
+        <v>0.00587971443562682</v>
       </c>
       <c r="DN20" t="n">
         <v>0.0724381625441696</v>
@@ -11058,10 +11058,10 @@
         <v>-0.6486486486486487</v>
       </c>
       <c r="ED20" t="n">
-        <v>-0.6966738124956956</v>
+        <v>-0.6942236177824639</v>
       </c>
       <c r="EE20" t="n">
-        <v>-0.6954035469003625</v>
+        <v>-0.6942236201988684</v>
       </c>
       <c r="EF20" t="n">
         <v>2.162162162162162</v>
@@ -11121,40 +11121,40 @@
         <v>45.62162162162162</v>
       </c>
       <c r="EY20" t="n">
-        <v>1.316345669077458</v>
+        <v>1.271581595813906</v>
       </c>
       <c r="EZ20" t="n">
-        <v>0.7153614718920073</v>
+        <v>0.7153615705618585</v>
       </c>
       <c r="FA20" t="n">
-        <v>-0.01270093104323825</v>
+        <v>-0.07966608866243749</v>
       </c>
       <c r="FB20" t="n">
-        <v>0.2486954068110601</v>
+        <v>0.253528508282191</v>
       </c>
       <c r="FC20" t="n">
-        <v>0.5744764871291212</v>
+        <v>0.5744765024330165</v>
       </c>
       <c r="FD20" t="n">
-        <v>-0.2094867244564198</v>
+        <v>-0.1921188128558365</v>
       </c>
       <c r="FE20" t="n">
-        <v>1.713657690866573</v>
+        <v>1.663307008157308</v>
       </c>
       <c r="FF20" t="n">
-        <v>0.8572647748766719</v>
+        <v>0.8572647813204173</v>
       </c>
       <c r="FG20" t="n">
-        <v>0.1354822824532921</v>
+        <v>0.08290224602899036</v>
       </c>
       <c r="FH20" t="n">
-        <v>0.1301119819384169</v>
+        <v>0.1481452866180523</v>
       </c>
       <c r="FI20" t="n">
-        <v>0.8041638218470522</v>
+        <v>0.8041637978843741</v>
       </c>
       <c r="FJ20" t="n">
-        <v>-0.2387523435084432</v>
+        <v>-0.2564719995822419</v>
       </c>
       <c r="FK20" t="n">
         <v>381.6486486486486</v>
@@ -11185,7 +11185,7 @@
         <v>-24</v>
       </c>
       <c r="C21" t="n">
-        <v>-7.7876616</v>
+        <v>-7.6522512</v>
       </c>
       <c r="D21" t="n">
         <v>11.54054054054054</v>
@@ -11200,37 +11200,37 @@
         <v>3.702702702702703</v>
       </c>
       <c r="H21" t="n">
-        <v>0.9424742178336994</v>
+        <v>0.899576131153751</v>
       </c>
       <c r="I21" t="n">
-        <v>0.6306861481956534</v>
+        <v>0.5985398312678208</v>
       </c>
       <c r="J21" t="n">
-        <v>0.3117880730864567</v>
+        <v>0.3010362964375196</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0816663880538047</v>
+        <v>0.07794921124567751</v>
       </c>
       <c r="L21" t="n">
         <v>18.74245736973068</v>
       </c>
       <c r="M21" t="n">
-        <v>20.29361361799569</v>
+        <v>20.29361530172414</v>
       </c>
       <c r="N21" t="n">
-        <v>15.45897902885493</v>
+        <v>15.45897724680657</v>
       </c>
       <c r="O21" t="n">
         <v>205.6216216216216</v>
       </c>
       <c r="P21" t="n">
-        <v>0.5123600933423279</v>
+        <v>0.512360093342328</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.8880253296141603</v>
+        <v>0.8880253933078052</v>
       </c>
       <c r="R21" t="n">
-        <v>2.878954152643512</v>
+        <v>2.878954152643513</v>
       </c>
       <c r="S21" t="n">
         <v>39.52570268146796</v>
@@ -11245,13 +11245,13 @@
         <v>0.972972972972973</v>
       </c>
       <c r="W21" t="n">
-        <v>44.43058754081157</v>
+        <v>44.43059482859142</v>
       </c>
       <c r="X21" t="n">
         <v>8.91016333938294</v>
       </c>
       <c r="Y21" t="n">
-        <v>4.98650651491744</v>
+        <v>4.986507332835089</v>
       </c>
       <c r="Z21" t="n">
         <v>0.7722215646822109</v>
@@ -11272,25 +11272,25 @@
         <v>3.243243243243243</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.050248903599945</v>
+        <v>1.00051535182708</v>
       </c>
       <c r="AG21" t="n">
-        <v>0.765689138222385</v>
+        <v>0.7249889506681545</v>
       </c>
       <c r="AH21" t="n">
-        <v>0.2845597638421365</v>
+        <v>0.2755263991200844</v>
       </c>
       <c r="AI21" t="n">
-        <v>0.08851755615790503</v>
+        <v>0.08432589902421608</v>
       </c>
       <c r="AJ21" t="n">
-        <v>17.78798917105638</v>
+        <v>17.78799028331435</v>
       </c>
       <c r="AK21" t="n">
-        <v>18.5125345929663</v>
+        <v>18.51253306230408</v>
       </c>
       <c r="AL21" t="n">
-        <v>15.86190592447917</v>
+        <v>15.86190694173177</v>
       </c>
       <c r="AM21" t="n">
         <v>2.567567567567568</v>
@@ -11302,37 +11302,37 @@
         <v>4.72972972972973</v>
       </c>
       <c r="AP21" t="n">
-        <v>0.1621592078811011</v>
+        <v>0.1640090258489992</v>
       </c>
       <c r="AQ21" t="n">
-        <v>0.03428509031023298</v>
+        <v>0.0346761975969587</v>
       </c>
       <c r="AR21" t="n">
         <v>16.89189189189189</v>
       </c>
       <c r="AS21" t="n">
-        <v>0.08294360082898591</v>
+        <v>0.08632089336075492</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.004910261154174805</v>
+        <v>0.005110196685791016</v>
       </c>
       <c r="AU21" t="n">
         <v>0.8108108108108109</v>
       </c>
       <c r="AV21" t="n">
-        <v>0.05655650623344086</v>
+        <v>0.0405102425531761</v>
       </c>
       <c r="AW21" t="n">
-        <v>0.0697530190149943</v>
+        <v>0.04996263186136882</v>
       </c>
       <c r="AX21" t="n">
         <v>23.21621621621622</v>
       </c>
       <c r="AY21" t="n">
-        <v>0.01012875522310669</v>
+        <v>0.01019613354189976</v>
       </c>
       <c r="AZ21" t="n">
-        <v>0.0004362793546061577</v>
+        <v>0.0004391815248829105</v>
       </c>
       <c r="BA21" t="n">
         <v>51.663944</v>
@@ -11410,7 +11410,7 @@
         <v>4.27027027027027</v>
       </c>
       <c r="BZ21" t="n">
-        <v>0.152705476493449</v>
+        <v>0.152157074494942</v>
       </c>
       <c r="CA21" t="n">
         <v>1.540540540540541</v>
@@ -11422,7 +11422,7 @@
         <v>17.2432432432432</v>
       </c>
       <c r="CD21" t="n">
-        <v>0.0860117546131683</v>
+        <v>0.0862636322633842</v>
       </c>
       <c r="CE21" t="n">
         <v>0.8648648648648649</v>
@@ -11434,13 +11434,13 @@
         <v>0.756756756756757</v>
       </c>
       <c r="CH21" t="n">
-        <v>0.0433876304257963</v>
+        <v>0.0346879992457862</v>
       </c>
       <c r="CI21" t="n">
         <v>22.7837837837838</v>
       </c>
       <c r="CJ21" t="n">
-        <v>0.00245490423529535</v>
+        <v>0.00241769220982049</v>
       </c>
       <c r="CK21" t="n">
         <v>0.05405405405405406</v>
@@ -11470,7 +11470,7 @@
         <v>0.001164144353899884</v>
       </c>
       <c r="CT21" t="n">
-        <v>0.035760137099254</v>
+        <v>0.0356317200238192</v>
       </c>
       <c r="CU21" t="n">
         <v>0.360759493670886</v>
@@ -11479,7 +11479,7 @@
         <v>0.0506329113924051</v>
       </c>
       <c r="CW21" t="n">
-        <v>0.00498814231549684</v>
+        <v>0.00500274975098039</v>
       </c>
       <c r="CX21" t="n">
         <v>0.0501567398119122</v>
@@ -11488,13 +11488,13 @@
         <v>0.007836990595611279</v>
       </c>
       <c r="CZ21" t="n">
-        <v>0.0573336482048035</v>
+        <v>0.0458377088819231</v>
       </c>
       <c r="DA21" t="n">
         <v>0.0714285714285714</v>
       </c>
       <c r="DB21" t="n">
-        <v>0.000107747874933064</v>
+        <v>0.000106114606911036</v>
       </c>
       <c r="DC21" t="n">
         <v>0.00237247924080664</v>
@@ -11512,7 +11512,7 @@
         <v>45.6486486486486</v>
       </c>
       <c r="DH21" t="n">
-        <v>0.00683017084766521</v>
+        <v>0.00659463757096557</v>
       </c>
       <c r="DI21" t="n">
         <v>0.0811130846654825</v>
@@ -11527,7 +11527,7 @@
         <v>45.0540540540541</v>
       </c>
       <c r="DM21" t="n">
-        <v>0.0063159635986621</v>
+        <v>0.0061154625840579</v>
       </c>
       <c r="DN21" t="n">
         <v>0.0719856028794241</v>
@@ -11578,10 +11578,10 @@
         <v>-0.5405405405405406</v>
       </c>
       <c r="ED21" t="n">
-        <v>-0.2104773819446564</v>
+        <v>-0.2068176072191548</v>
       </c>
       <c r="EE21" t="n">
-        <v>-0.1077746805307027</v>
+        <v>-0.100939215437786</v>
       </c>
       <c r="EF21" t="n">
         <v>2.162162162162162</v>
@@ -11641,40 +11641,40 @@
         <v>41.83783783783784</v>
       </c>
       <c r="EY21" t="n">
-        <v>0.9336961944763725</v>
+        <v>0.9472046588119623</v>
       </c>
       <c r="EZ21" t="n">
-        <v>0.6671665806222606</v>
+        <v>0.6671666978178797</v>
       </c>
       <c r="FA21" t="n">
-        <v>-0.2345001478427769</v>
+        <v>-0.2934994547552354</v>
       </c>
       <c r="FB21" t="n">
-        <v>0.2128694499716968</v>
+        <v>0.2821689834314826</v>
       </c>
       <c r="FC21" t="n">
-        <v>0.6544532381199502</v>
+        <v>0.6544532151641073</v>
       </c>
       <c r="FD21" t="n">
-        <v>-0.3764677672491719</v>
+        <v>-0.3731702047451917</v>
       </c>
       <c r="FE21" t="n">
-        <v>1.675519477878068</v>
+        <v>1.578984814922552</v>
       </c>
       <c r="FF21" t="n">
-        <v>0.6983008976975406</v>
+        <v>0.6983009838826351</v>
       </c>
       <c r="FG21" t="n">
-        <v>0.01393128418036409</v>
+        <v>-0.04536140347654755</v>
       </c>
       <c r="FH21" t="n">
-        <v>0.306366759780291</v>
+        <v>0.3011919070740004</v>
       </c>
       <c r="FI21" t="n">
-        <v>0.7790519309204977</v>
+        <v>0.7790518914525574</v>
       </c>
       <c r="FJ21" t="n">
-        <v>-0.1223171882180346</v>
+        <v>-0.1543844210572314</v>
       </c>
       <c r="FK21" t="n">
         <v>481.2702702702703</v>
